--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -864,6 +864,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,43 +949,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1236,7 +1236,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-8.1999999999999993</c:v>
+                  <c:v>-14.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1257,7 +1257,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1390,7 +1390,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1411,7 +1411,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2332,13 +2332,13 @@
                   <c:v>24.947945807220282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.456002793295749</c:v>
+                  <c:v>21.824756585125982</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.792751719653335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11.661903789690601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7776,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7800,48 +7800,48 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="78" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="89" t="s">
+      <c r="V2" s="63" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -7872,51 +7872,51 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="83" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="86" t="s">
+      <c r="T3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="79"/>
-      <c r="V3" s="89"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="63"/>
     </row>
     <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="89"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="63"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -7944,13 +7944,13 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="89"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="63"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -7978,13 +7978,13 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="89"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="63"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -8012,13 +8012,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="89"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="63"/>
     </row>
     <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -8046,13 +8046,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="89"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="63"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="61" t="s">
         <v>28</v>
@@ -8067,29 +8067,29 @@
       <c r="AS8" s="61"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="89"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="63"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -8215,10 +8215,10 @@
         <f>AVERAGE(P10:T10)</f>
         <v>33.571257493560516</v>
       </c>
-      <c r="W10" s="90">
+      <c r="W10" s="62">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="Y10" s="90">
+      <c r="Y10" s="62">
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="AC10">
@@ -8343,7 +8343,7 @@
         <f t="shared" ref="U11:U33" si="12">AVERAGE(P11:T11)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="90"/>
+      <c r="V11" s="62"/>
       <c r="AC11">
         <v>5</v>
       </c>
@@ -8466,7 +8466,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X12" s="90">
+      <c r="X12" s="62">
         <v>2.013888888888889E-2</v>
       </c>
       <c r="AC12">
@@ -8664,22 +8664,22 @@
       </c>
     </row>
     <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="69"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9084,22 +9084,22 @@
       </c>
     </row>
     <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="69"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -9135,8 +9135,12 @@
       <c r="E20" s="2">
         <v>-30</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="2">
+        <v>-17</v>
+      </c>
+      <c r="G20" s="40">
+        <v>-14</v>
+      </c>
       <c r="H20" s="7">
         <v>11</v>
       </c>
@@ -9146,19 +9150,23 @@
       <c r="J20" s="2">
         <v>17</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="41"/>
+      <c r="K20" s="2">
+        <v>34</v>
+      </c>
+      <c r="L20" s="41">
+        <v>8</v>
+      </c>
       <c r="M20" s="7">
         <f>SUM(C20:G20)/5</f>
-        <v>-8.1999999999999993</v>
+        <v>-14.4</v>
       </c>
       <c r="N20" s="44">
         <f>SUM(H20:L20)/5</f>
-        <v>8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="O20" s="48">
         <f t="shared" si="2"/>
-        <v>11.456002793295749</v>
+        <v>21.824756585125982</v>
       </c>
       <c r="P20" s="58">
         <f t="shared" si="7"/>
@@ -9174,17 +9182,17 @@
       </c>
       <c r="S20" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>38.013155617496423</v>
       </c>
       <c r="T20" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16.124515496597098</v>
       </c>
       <c r="U20" s="60">
         <f t="shared" si="12"/>
-        <v>12.002368677054999</v>
-      </c>
-      <c r="X20" s="90">
+        <v>22.829902899873705</v>
+      </c>
+      <c r="X20" s="62">
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="AC20">
@@ -9465,22 +9473,22 @@
       <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="69"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="82"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -9573,7 +9581,7 @@
         <f t="shared" si="12"/>
         <v>15.875485687217978</v>
       </c>
-      <c r="W25" s="90">
+      <c r="W25" s="62">
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="AC25">
@@ -9876,22 +9884,22 @@
       </c>
     </row>
     <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="69"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="82"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -9907,51 +9915,74 @@
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="41"/>
+      <c r="C30" s="7">
+        <v>-8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-11</v>
+      </c>
+      <c r="G30" s="40">
+        <v>7</v>
+      </c>
+      <c r="H30" s="7">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2">
+        <v>19</v>
+      </c>
+      <c r="J30" s="2">
+        <v>15</v>
+      </c>
+      <c r="K30" s="2">
+        <v>11</v>
+      </c>
+      <c r="L30" s="41">
+        <v>-9</v>
+      </c>
       <c r="M30" s="7">
         <f>SUM(C30:G30)/5</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="N30" s="44">
         <f>SUM(H30:L30)/5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O30" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.661903789690601</v>
       </c>
       <c r="P30" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.124515496597098</v>
       </c>
       <c r="Q30" s="59">
         <f>SQRT((D30)^2+(I30)^2)</f>
-        <v>0</v>
+        <v>22.472205054244231</v>
       </c>
       <c r="R30" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16.15549442140351</v>
       </c>
       <c r="S30" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="T30" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11.401754250991379</v>
       </c>
       <c r="U30" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16.342063681868051</v>
+      </c>
+      <c r="W30" s="62">
+        <v>0.11875000000000001</v>
       </c>
       <c r="AC30">
         <v>0.25</v>
@@ -10242,22 +10273,22 @@
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="66"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="79"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
@@ -10461,14 +10492,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -10482,6 +10505,14 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -865,42 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,6 +912,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,15 +1043,195 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8866390605476118E-2"/>
+          <c:y val="0.10666760066726742"/>
+          <c:w val="0.73893283320453973"/>
+          <c:h val="0.75913838910030607"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>5 Meter Jumps</c:v>
+            <c:v>5 Meters Forward</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A2C-466F-BB7C-08EAE7D622EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 Meters Backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A2C-466F-BB7C-08EAE7D622EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5 Meter Right</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1077,43 +1257,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$10:$M$13</c:f>
+              <c:f>Sheet1!$C$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-20.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$10:$N$13</c:f>
+              <c:f>Sheet1!$H$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>21.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1126,9 +1282,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>2.5 Meter Jumps</c:v>
+            <c:v>2.5 Meters Forward</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1154,42 +1310,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$18</c:f>
+              <c:f>Sheet1!$C$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-16.399999999999999</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$15:$N$18</c:f>
+              <c:f>Sheet1!$H$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,10 +1364,97 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2.5 Meters Backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A2C-466F-BB7C-08EAE7D622EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>1 Meter Jumps</c:v>
+            <c:v>1 Meter Forward</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1231,42 +1480,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$20:$M$23</c:f>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-14.4</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$23</c:f>
+              <c:f>Sheet1!$H$20:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,9 +1535,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>0.5 Meter Jumps</c:v>
+            <c:v>0.5 Meter Forward</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1308,42 +1563,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$25:$M$28</c:f>
+              <c:f>Sheet1!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-6.8</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$25:$N$28</c:f>
+              <c:f>Sheet1!$H$25:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,9 +1618,9 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="7"/>
           <c:tx>
-            <c:v>0.25 Meter Jumps</c:v>
+            <c:v>0.25 Meter Forward</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1385,42 +1646,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$30:$M$33</c:f>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$30:$N$33</c:f>
+              <c:f>Sheet1!$H$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,6 +1696,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-6CB8-402B-B9F2-4417F1BC8B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>0.5 Meters Backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A2C-466F-BB7C-08EAE7D622EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1765,7 +2119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1928,7 +2281,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1963,7 +2315,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1977,7 +2328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2022,7 +2372,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2185,7 +2534,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2220,7 +2568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2234,7 +2581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2414,16 +2760,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.102671483327359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.6519428096109223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.6092973000123525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.3560994328282812</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5049,7 +5395,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5271,7 +5616,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5352,7 +5696,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5406,7 +5749,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5747,7 +6089,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5910,7 +6251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5945,7 +6285,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -5959,7 +6298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7776,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:O4"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7800,48 +8138,48 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="64" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="79" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -7872,51 +8210,51 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="69" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="63"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="63"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="79"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -7944,13 +8282,13 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="63"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="79"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -7978,13 +8316,13 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="63"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="79"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -8012,13 +8350,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="63"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="79"/>
     </row>
     <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -8046,13 +8384,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="63"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="79"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="61" t="s">
         <v>28</v>
@@ -8067,29 +8405,29 @@
       <c r="AS8" s="61"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="63"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="79"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -8297,53 +8635,76 @@
       <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="16"/>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>19</v>
+      </c>
       <c r="M11" s="7">
         <f t="shared" ref="M11:M13" si="5">SUM(C11:G11)/5</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="N11" s="44">
         <f t="shared" ref="N11:N13" si="6">SUM(H11:L11)/5</f>
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="O11" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.102671483327359</v>
       </c>
       <c r="P11" s="58">
         <f t="shared" ref="P11:P33" si="7">SQRT((C11)^2+(H11)^2)</f>
-        <v>0</v>
+        <v>20.09975124224178</v>
       </c>
       <c r="Q11" s="59">
         <f t="shared" ref="Q11:Q33" si="8">SQRT((D11)^2+(I11)^2)</f>
-        <v>0</v>
+        <v>9.4339811320566032</v>
       </c>
       <c r="R11" s="59">
         <f t="shared" ref="R11:R33" si="9">SQRT((E11)^2+(J11)^2)</f>
-        <v>0</v>
+        <v>12.041594578792296</v>
       </c>
       <c r="S11" s="59">
         <f t="shared" ref="S11:S33" si="10">SQRT((F11)^2+(K11)^2)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T11" s="59">
         <f t="shared" ref="T11:T33" si="11">SQRT((G11)^2+(L11)^2)</f>
-        <v>0</v>
+        <v>19.646882704388499</v>
       </c>
       <c r="U11" s="60">
         <f t="shared" ref="U11:U33" si="12">AVERAGE(P11:T11)</f>
-        <v>0</v>
+        <v>15.044441931495836</v>
       </c>
       <c r="V11" s="62"/>
+      <c r="X11" s="62">
+        <v>1.2499999999999999E-2</v>
+      </c>
       <c r="AC11">
         <v>5</v>
       </c>
@@ -8466,9 +8827,6 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X12" s="62">
-        <v>2.013888888888889E-2</v>
-      </c>
       <c r="AC12">
         <v>5</v>
       </c>
@@ -8664,22 +9022,22 @@
       </c>
     </row>
     <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="70"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -8807,6 +9165,9 @@
         <f t="shared" si="12"/>
         <v>25.931491087423133</v>
       </c>
+      <c r="X15" s="62">
+        <v>2.013888888888889E-2</v>
+      </c>
       <c r="AC15">
         <v>2.5</v>
       </c>
@@ -8837,51 +9198,74 @@
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="16"/>
+      <c r="C16" s="8">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>-14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-17</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1">
+        <v>37</v>
+      </c>
+      <c r="L16" s="16">
+        <v>-8</v>
+      </c>
       <c r="M16" s="7">
         <f t="shared" ref="M16:M18" si="20">SUM(C16:G16)/5</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="N16" s="44">
         <f t="shared" ref="N16:N18" si="21">SUM(H16:L16)/5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.6519428096109223</v>
       </c>
       <c r="P16" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>17.804493814764857</v>
       </c>
       <c r="Q16" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>24.758836806279895</v>
       </c>
       <c r="R16" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.8994949366116654</v>
       </c>
       <c r="S16" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>38.897300677553446</v>
       </c>
       <c r="T16" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U16" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>19.872025247041972</v>
+      </c>
+      <c r="X16" s="62">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AC16">
         <v>2.5</v>
@@ -9084,22 +9468,22 @@
       </c>
     </row>
     <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="70"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -9237,51 +9621,74 @@
       <c r="B21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="16"/>
+      <c r="C21" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>6</v>
+      </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M23" si="22">SUM(C21:G21)/5</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N21" s="44">
         <f t="shared" ref="N21:N23" si="23">SUM(H21:L21)/5</f>
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O21" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.6092973000123525</v>
       </c>
       <c r="P21" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>18.027756377319946</v>
       </c>
       <c r="Q21" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>17.720045146669349</v>
       </c>
       <c r="R21" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="S21" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U21" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.996773900297816</v>
+      </c>
+      <c r="X21" s="62">
+        <v>3.9583333333333331E-2</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -9473,22 +9880,22 @@
       <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="70"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -9625,51 +10032,74 @@
       <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="16"/>
+      <c r="C26" s="8">
+        <v>-8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-9</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-10</v>
+      </c>
+      <c r="L26" s="16">
+        <v>11</v>
+      </c>
       <c r="M26" s="7">
         <f t="shared" ref="M26:M28" si="24">SUM(C26:G26)/5</f>
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="N26" s="44">
         <f t="shared" ref="N26:N28" si="25">SUM(H26:L26)/5</f>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O26" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.3560994328282812</v>
       </c>
       <c r="P26" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14.422205101855956</v>
       </c>
       <c r="Q26" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S26" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>13.45362404707371</v>
       </c>
       <c r="T26" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U26" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10.175165829785934</v>
+      </c>
+      <c r="X26" s="62">
+        <v>7.013888888888889E-2</v>
       </c>
       <c r="AC26">
         <v>0.5</v>
@@ -9884,22 +10314,22 @@
       </c>
     </row>
     <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="82"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10273,22 +10703,22 @@
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="79"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="67"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
@@ -10492,6 +10922,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -10505,14 +10943,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blab\PycharmProjects\CopterTests\CopterMoveANDLocalisation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Tests: 10 meter movement</t>
   </si>
@@ -115,22 +110,19 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
-  </si>
-  <si>
     <t>Step Size</t>
   </si>
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>STD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,6 +863,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,7 +955,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,7 +971,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1020,26 +1024,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1134,7 +1118,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A2C-466F-BB7C-08EAE7D622EA}"/>
             </c:ext>
@@ -1221,7 +1205,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A2C-466F-BB7C-08EAE7D622EA}"/>
             </c:ext>
@@ -1274,7 +1258,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1357,7 +1341,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1444,7 +1428,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5A2C-466F-BB7C-08EAE7D622EA}"/>
             </c:ext>
@@ -1527,7 +1511,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1610,7 +1594,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1693,7 +1677,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1780,7 +1764,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5A2C-466F-BB7C-08EAE7D622EA}"/>
             </c:ext>
@@ -1794,11 +1778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171229760"/>
-        <c:axId val="171230336"/>
+        <c:axId val="156024832"/>
+        <c:axId val="156025408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171229760"/>
+        <c:axId val="156024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,26 +1823,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1897,12 +1861,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171230336"/>
+        <c:crossAx val="156025408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171230336"/>
+        <c:axId val="156025408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,26 +1907,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2001,7 +1945,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171229760"/>
+        <c:crossAx val="156024832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2048,7 +1992,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2090,7 +2034,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2119,6 +2063,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2150,19 +2095,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>37.142600766787339</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.739059775308796</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>45.44733815255681</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>25.705176147360486</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>41.168726141069897</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2174,19 +2119,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>37.142600766787339</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.739059775308796</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>45.44733815255681</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>25.705176147360486</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>41.168726141069897</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2223,25 +2168,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.53328228913918</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.262517520499784</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.584018832432477</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.66615650837559</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.748621420957761</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0DA6-43CE-BE52-4101E17ADBBE}"/>
             </c:ext>
@@ -2255,11 +2200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311972928"/>
-        <c:axId val="311974080"/>
+        <c:axId val="186889856"/>
+        <c:axId val="186890432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311972928"/>
+        <c:axId val="186889856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,18 +2226,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311974080"/>
+        <c:crossAx val="186890432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311974080"/>
+        <c:axId val="186890432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,19 +2261,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311972928"/>
+        <c:crossAx val="186889856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2343,7 +2291,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2372,6 +2320,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2403,19 +2352,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>10.946970221336516</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20.012639877217772</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.889370690673987</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.835252902115773</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>13.529198243204812</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2427,19 +2376,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>10.946970221336516</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20.012639877217772</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.889370690673987</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.835252902115773</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>13.529198243204812</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2476,25 +2425,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.21055643294148</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.674848123129443</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.389610529178121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.52597855728667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.053722038548841</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-971C-445D-A0B9-0CA9E97FC6B9}"/>
             </c:ext>
@@ -2508,11 +2457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311608448"/>
-        <c:axId val="311609024"/>
+        <c:axId val="156016640"/>
+        <c:axId val="156017216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311608448"/>
+        <c:axId val="156016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,18 +2483,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311609024"/>
+        <c:crossAx val="156017216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311609024"/>
+        <c:axId val="156017216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,19 +2518,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311608448"/>
+        <c:crossAx val="156016640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2596,7 +2548,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2690,7 +2642,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
@@ -2778,7 +2730,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
@@ -2866,7 +2818,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
@@ -2954,7 +2906,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
@@ -2977,11 +2929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199429632"/>
-        <c:axId val="171232640"/>
+        <c:axId val="186310656"/>
+        <c:axId val="156027712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199429632"/>
+        <c:axId val="186310656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +2976,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171232640"/>
+        <c:crossAx val="156027712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3032,7 +2984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171232640"/>
+        <c:axId val="156027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3035,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199429632"/>
+        <c:crossAx val="186310656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3130,7 +3082,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3172,7 +3124,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -3244,66 +3196,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3313,71 +3205,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.687872655688281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66.91038783328041</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.12142238654117</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.036834964133774</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.518284528683193</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.888543819998318</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.888543819998318</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.727418414731339</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53.235326616824658</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.810249675906654</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59.169248769948062</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>103.07764064044152</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>79.309520235593411</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104.35037134576953</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56.435804238089851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122.80065146407001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>92.282175960474618</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>111.66467659918243</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64.845971347493901</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -3417,66 +3249,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3486,71 +3258,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>66.030296076876709</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.059928172283335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85.702975444263316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.202941017470888</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.114099732158877</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51.623637996561229</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98.005101908012932</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.720045146669349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88.141930997681229</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.165525060596439</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>114.35471131527551</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.561028345356956</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>68.87670143089025</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>112.60550608207397</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154.25303886795876</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40.496913462633174</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>86.092973000123536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>127.47156545677157</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>84.219950130595535</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -3590,66 +3302,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3659,71 +3311,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>46.227697325304881</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.653097563788805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.477269964414347</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.041648597857254</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92.17917335276988</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.095023109728988</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>57.55866572463264</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.413812651491099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.011362169330773</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31.32091952673165</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34.928498393145958</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92.617492948146676</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.076809620810597</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.664131775772461</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>94.069123520951337</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>127.81627439414747</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>74.249579123386283</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>68.264192663504048</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>61.522353661088097</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -3763,66 +3355,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3832,71 +3364,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>55.97320787662612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.819674828324601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.523499553598128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.142675390472796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.249030993194197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.600373133029585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.301943396169811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.840329667841555</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117.92370414806346</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53.450912059571067</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.429213769242352</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.086792761230392</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90.801982357215081</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>146.57762448614045</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>121.49485585818027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.8166632639171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.416407864998739</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>172.75416058665562</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75.504966724050675</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -3910,11 +3382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171234944"/>
-        <c:axId val="171235520"/>
+        <c:axId val="156030016"/>
+        <c:axId val="156030592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171234944"/>
+        <c:axId val="156030016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,12 +3448,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171235520"/>
+        <c:crossAx val="156030592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171235520"/>
+        <c:axId val="156030592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,7 +3529,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171234944"/>
+        <c:crossAx val="156030016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4077,7 +3549,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4119,7 +3591,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -4178,144 +3650,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE:$AE</c:f>
+              <c:f>Sheet1!$AK$10:$AK$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>33.105890714493697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.704699910719626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.324358044868937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.61544808322666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.105890714493697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.649655434629018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.413812651491099</c:v>
+                </c:pt>
                 <c:pt idx="9">
+                  <c:v>18.439088914585774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.463092423455635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.931491087423133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.529964086141668</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.687872655688281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66.91038783328041</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.12142238654117</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.036834964133774</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.518284528683193</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.888543819998318</c:v>
+                  <c:v>34.481879299133332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.888543819998318</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.727418414731339</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53.235326616824658</c:v>
+                  <c:v>38.013155617496423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.124515496597098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.810249675906654</c:v>
+                  <c:v>20.124611797498108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.169248769948062</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.04987562112089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103.07764064044152</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79.309520235593411</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104.35037134576953</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56.435804238089851</c:v>
+                  <c:v>27.202941017470888</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.124515496597098</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>122.80065146407001</c:v>
+                  <c:v>22.472205054244231</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.282175960474618</c:v>
+                  <c:v>16.15549442140351</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>111.66467659918243</c:v>
+                  <c:v>15.556349186104045</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>64.845971347493901</c:v>
+                  <c:v>11.401754250991379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -4329,11 +3831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200672384"/>
-        <c:axId val="200672960"/>
+        <c:axId val="186614336"/>
+        <c:axId val="186614912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200672384"/>
+        <c:axId val="186614336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,12 +3902,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200672960"/>
+        <c:crossAx val="186614912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200672960"/>
+        <c:axId val="186614912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +3946,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4481,7 +3983,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200672384"/>
+        <c:crossAx val="186614336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4501,7 +4003,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4543,7 +4045,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -4602,144 +4104,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AF:$AF</c:f>
+              <c:f>Sheet1!$AL$10:$AL$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>20.09975124224178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4339811320566032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.041594578792296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.61544808322666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.646882704388499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.804493814764857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.758836806279895</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.030296076876709</c:v>
+                  <c:v>9.8994949366116654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.059928172283335</c:v>
+                  <c:v>38.897300677553446</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.702975444263316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.202941017470888</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.114099732158877</c:v>
+                  <c:v>18.027756377319946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.623637996561229</c:v>
+                  <c:v>17.720045146669349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.005101908012932</c:v>
+                  <c:v>2.2360679774997898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.720045146669349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88.141930997681229</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.165525060596439</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.35471131527551</c:v>
+                  <c:v>14.422205101855956</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.561028345356956</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.87670143089025</c:v>
+                  <c:v>13.45362404707371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>112.60550608207397</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154.25303886795876</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40.496913462633174</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>86.092973000123536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.47156545677157</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84.219950130595535</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -4753,11 +4285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200674688"/>
-        <c:axId val="200675264"/>
+        <c:axId val="186616064"/>
+        <c:axId val="186616640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200674688"/>
+        <c:axId val="186616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,12 +4351,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200675264"/>
+        <c:crossAx val="186616640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200675264"/>
+        <c:axId val="186616640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,7 +4395,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4900,7 +4432,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200674688"/>
+        <c:crossAx val="186616064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4920,7 +4452,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4962,7 +4494,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -5021,144 +4553,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:f>Sheet1!$AM$10:$AM$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.227697325304881</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.653097563788805</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.477269964414347</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.041648597857254</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92.17917335276988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.095023109728988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.55866572463264</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.413812651491099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.011362169330773</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.32091952673165</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.928498393145958</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92.617492948146676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.076809620810597</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.664131775772461</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>94.069123520951337</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>127.81627439414747</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.249579123386283</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.264192663504048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>61.522353661088097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3A5C-4A9B-A428-ADA407BDD223}"/>
             </c:ext>
@@ -5172,11 +4734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200676992"/>
-        <c:axId val="200677568"/>
+        <c:axId val="186618368"/>
+        <c:axId val="186618944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200676992"/>
+        <c:axId val="186618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5238,12 +4800,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200677568"/>
+        <c:crossAx val="186618944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200677568"/>
+        <c:axId val="186618944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5275,6 +4837,374 @@
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186618368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$10:$AJ$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$10:$AN$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="186620672"/>
+        <c:axId val="186621248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="186620672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step Size (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5319,287 +5249,31 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200676992"/>
+        <c:crossAx val="186621248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Left</c:v>
-          </c:tx>
+      <c:valAx>
+        <c:axId val="186621248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$AD$10:$AD$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AH$10:$AH$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>55.97320787662612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.819674828324601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.523499553598128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.142675390472796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.249030993194197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.600373133029585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.301943396169811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.840329667841555</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117.92370414806346</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53.450912059571067</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.429213769242352</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.086792761230392</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90.801982357215081</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>146.57762448614045</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>121.49485585818027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.8166632639171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.416407864998739</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>172.75416058665562</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75.504966724050675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3A5C-4A9B-A428-ADA407BDD223}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="211050496"/>
-        <c:axId val="211051072"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="211050496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5611,14 +5285,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Step Size (m)</a:t>
+                  <a:t>Position Error (am)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5655,87 +5330,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211051072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="211051072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Position Error (am)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="211050496"/>
+        <c:crossAx val="186620672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5749,12 +5344,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -5796,7 +5392,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -5857,19 +5453,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>19.943420941291297</c:v>
+                    <c:v>13.636837532079094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.509724707104041</c:v>
+                    <c:v>5.6638758320332245</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.625073546705785</c:v>
+                    <c:v>12.389286378880856</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.46885369542389</c:v>
+                    <c:v>8.0598506650974251</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>54.644529411001635</c:v>
+                    <c:v>3.958685801148083</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5881,19 +5477,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>19.943420941291297</c:v>
+                    <c:v>13.636837532079094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.509724707104041</c:v>
+                    <c:v>5.6638758320332245</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.625073546705785</c:v>
+                    <c:v>12.389286378880856</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.46885369542389</c:v>
+                    <c:v>8.0598506650974251</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>54.644529411001635</c:v>
+                    <c:v>3.958685801148083</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5937,25 +5533,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.911111864735332</c:v>
+                  <c:v>33.571257493560516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.014847322044126</c:v>
+                  <c:v>27.579428102316932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.441373242393425</c:v>
+                  <c:v>22.829902899873705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.538268899400876</c:v>
+                  <c:v>15.875485687217978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.148366970285608</c:v>
+                  <c:v>16.342063681868051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C0E-42A0-9838-C9CCF77C6CB7}"/>
             </c:ext>
@@ -5969,11 +5565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311970048"/>
-        <c:axId val="311969472"/>
+        <c:axId val="186885248"/>
+        <c:axId val="186885824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311970048"/>
+        <c:axId val="186885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6002,12 +5598,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311969472"/>
+        <c:crossAx val="186885824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311969472"/>
+        <c:axId val="186885824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6037,7 +5633,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311970048"/>
+        <c:crossAx val="186885248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6060,7 +5656,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -6089,6 +5685,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6120,19 +5717,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>18.336147767809965</c:v>
+                    <c:v>14.758115687645194</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.290364477599841</c:v>
+                    <c:v>12.555009586860459</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.108546857188312</c:v>
+                    <c:v>8.3109911703508637</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>46.444516617562471</c:v>
+                    <c:v>4.2523523396404856</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>55.208019895917701</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6144,19 +5741,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>18.336147767809965</c:v>
+                    <c:v>14.758115687645194</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.290364477599841</c:v>
+                    <c:v>12.555009586860459</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.108546857188312</c:v>
+                    <c:v>8.3109911703508637</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>46.444516617562471</c:v>
+                    <c:v>4.2523523396404856</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>55.208019895917701</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6193,25 +5790,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.066953158383484</c:v>
+                  <c:v>21.567531548141169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.638451427489983</c:v>
+                  <c:v>19.872025247041972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.603490967774732</c:v>
+                  <c:v>8.996773900297816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.146927387997053</c:v>
+                  <c:v>10.175165829785934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.612674800643987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE94-483A-B862-B11ACBD15FF6}"/>
             </c:ext>
@@ -6225,11 +5822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211148800"/>
-        <c:axId val="211155712"/>
+        <c:axId val="186887552"/>
+        <c:axId val="186888128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211148800"/>
+        <c:axId val="186887552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6251,18 +5848,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211155712"/>
+        <c:crossAx val="186888128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211155712"/>
+        <c:axId val="186888128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6285,19 +5883,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211148800"/>
+        <c:crossAx val="186887552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7444,7 +7044,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAD711-5CD7-4092-9D77-2BCD56A91F99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAD711-5CD7-4092-9D77-2BCD56A91F99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7480,7 +7080,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF29F49-BF6C-4F66-BAC3-EC7DEFE27457}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF29F49-BF6C-4F66-BAC3-EC7DEFE27457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7516,7 +7116,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7552,7 +7152,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7590,7 +7190,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7628,7 +7228,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7666,7 +7266,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8104,7 +7704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8114,11 +7714,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -8138,48 +7738,48 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="80" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="79" t="s">
-        <v>31</v>
+      <c r="V2" s="81" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8210,51 +7810,51 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="85" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="79"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="79"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="81"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -8282,13 +7882,13 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="79"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="81"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -8316,13 +7916,13 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="79"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="81"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -8350,13 +7950,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="79"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="81"/>
     </row>
     <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -8384,50 +7984,50 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="79"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="81"/>
       <c r="AK8" s="61"/>
-      <c r="AL8" s="61" t="s">
-        <v>28</v>
+      <c r="AL8" s="63" t="s">
+        <v>26</v>
       </c>
       <c r="AM8" s="61"/>
       <c r="AN8" s="61"/>
       <c r="AP8" s="61"/>
-      <c r="AQ8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="AS8" s="61"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="79"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="81"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -8443,31 +8043,34 @@
       <c r="AA9">
         <v>5</v>
       </c>
-      <c r="AJ9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK9" s="61" t="s">
+      <c r="AJ9" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="61" t="s">
+      <c r="AL9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="61" t="s">
+      <c r="AN9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AQ9" s="61" t="s">
+      <c r="AP9" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AR9" s="61" t="s">
+      <c r="AR9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AS9" s="61" t="s">
+      <c r="AS9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="61" t="s">
+      <c r="AT9" s="64" t="s">
         <v>25</v>
       </c>
       <c r="AV9" s="61" t="s">
@@ -8559,76 +8162,59 @@
       <c r="Y10" s="62">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="AC10">
-        <v>5</v>
-      </c>
-      <c r="AD10">
-        <v>43.324358044868937</v>
-      </c>
-      <c r="AE10">
-        <v>13</v>
-      </c>
-      <c r="AF10">
-        <v>66.030296076876709</v>
-      </c>
-      <c r="AG10">
-        <v>46.227697325304881</v>
-      </c>
-      <c r="AH10">
-        <v>55.97320787662612</v>
-      </c>
-      <c r="AI10">
-        <v>44.911111864735332</v>
-      </c>
       <c r="AJ10">
         <v>5</v>
       </c>
       <c r="AK10" s="51">
-        <v>43.324358044868937</v>
+        <f>P10</f>
+        <v>33.105890714493697</v>
       </c>
       <c r="AL10" s="51">
-        <v>70.114192571832419</v>
+        <f>P11</f>
+        <v>20.09975124224178</v>
       </c>
       <c r="AM10" s="51">
-        <v>153.05227865013967</v>
+        <f>P12</f>
+        <v>0</v>
       </c>
       <c r="AN10" s="51">
-        <v>42.544094772365298</v>
+        <f>P13</f>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>5</v>
       </c>
       <c r="AQ10" s="51">
         <f>AVERAGE(AK10:AK14)</f>
-        <v>44.911111864735332</v>
+        <v>33.571257493560516</v>
       </c>
       <c r="AR10" s="51">
         <f>AVERAGE(AL10:AL14)</f>
-        <v>42.066953158383484</v>
+        <v>21.567531548141169</v>
       </c>
       <c r="AS10" s="51">
         <f>AVERAGE(AM10:AM14)</f>
-        <v>91.53328228913918</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="51">
         <f>AVERAGE(AN10:AN14)</f>
-        <v>42.21055643294148</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="51">
         <f>STDEV(AK10:AK14)</f>
-        <v>19.943420941291297</v>
+        <v>13.636837532079094</v>
       </c>
       <c r="AW10" s="51">
         <f t="shared" ref="AW10:AX10" si="4">STDEV(AL10:AL14)</f>
-        <v>18.336147767809965</v>
+        <v>14.758115687645194</v>
       </c>
       <c r="AX10" s="51">
         <f t="shared" si="4"/>
-        <v>37.142600766787339</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="51">
         <f>STDEV(AN10:AN14)</f>
-        <v>10.946970221336516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
@@ -8705,76 +8291,59 @@
       <c r="X11" s="62">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="AC11">
-        <v>5</v>
-      </c>
-      <c r="AD11">
-        <v>70.114192571832419</v>
-      </c>
-      <c r="AE11">
-        <v>36.687872655688281</v>
-      </c>
-      <c r="AF11">
-        <v>25.059928172283335</v>
-      </c>
-      <c r="AG11">
-        <v>28.653097563788805</v>
-      </c>
-      <c r="AH11">
-        <v>49.819674828324601</v>
-      </c>
-      <c r="AI11">
-        <v>42.066953158383484</v>
-      </c>
       <c r="AJ11">
         <v>5</v>
       </c>
       <c r="AK11" s="51">
-        <v>13</v>
+        <f>Q10</f>
+        <v>11.704699910719626</v>
       </c>
       <c r="AL11" s="51">
-        <v>36.687872655688281</v>
+        <f>Q11</f>
+        <v>9.4339811320566032</v>
       </c>
       <c r="AM11" s="51">
-        <v>66.91038783328041</v>
+        <f>Q12</f>
+        <v>0</v>
       </c>
       <c r="AN11" s="51">
-        <v>37.12142238654117</v>
+        <f>Q13</f>
+        <v>0</v>
       </c>
       <c r="AP11" s="51">
         <v>2.5</v>
       </c>
       <c r="AQ11" s="51">
         <f>AVERAGE(AK17:AK21)</f>
-        <v>56.014847322044126</v>
+        <v>27.579428102316932</v>
       </c>
       <c r="AR11" s="51">
         <f>AVERAGE(AL17:AL21)</f>
-        <v>35.638451427489983</v>
+        <v>19.872025247041972</v>
       </c>
       <c r="AS11" s="51">
         <f>AVERAGE(AM17:AM21)</f>
-        <v>51.262517520499784</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="51">
         <f>AVERAGE(AN17:AN21)</f>
-        <v>33.674848123129443</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="51">
         <f>STDEV(AK17:AK21)</f>
-        <v>34.509724707104041</v>
+        <v>5.6638758320332245</v>
       </c>
       <c r="AW11" s="51">
         <f t="shared" ref="AW11:AY11" si="13">STDEV(AL17:AL21)</f>
-        <v>16.290364477599841</v>
+        <v>12.555009586860459</v>
       </c>
       <c r="AX11" s="51">
         <f t="shared" si="13"/>
-        <v>39.739059775308796</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="51">
         <f t="shared" si="13"/>
-        <v>20.012639877217772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
@@ -8827,76 +8396,59 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC12">
-        <v>5</v>
-      </c>
-      <c r="AD12">
-        <v>153.05227865013967</v>
-      </c>
-      <c r="AE12">
-        <v>66.91038783328041</v>
-      </c>
-      <c r="AF12">
-        <v>85.702975444263316</v>
-      </c>
-      <c r="AG12">
-        <v>93.477269964414347</v>
-      </c>
-      <c r="AH12">
-        <v>58.523499553598128</v>
-      </c>
-      <c r="AI12">
-        <v>91.53328228913918</v>
-      </c>
       <c r="AJ12">
         <v>5</v>
       </c>
       <c r="AK12" s="51">
-        <v>66.030296076876709</v>
+        <f>R10</f>
+        <v>43.324358044868937</v>
       </c>
       <c r="AL12" s="51">
-        <v>25.059928172283335</v>
+        <f>R11</f>
+        <v>12.041594578792296</v>
       </c>
       <c r="AM12" s="51">
-        <v>85.702975444263316</v>
+        <f>R12</f>
+        <v>0</v>
       </c>
       <c r="AN12" s="51">
-        <v>27.202941017470888</v>
+        <f>R13</f>
+        <v>0</v>
       </c>
       <c r="AP12" s="51">
         <v>1</v>
       </c>
       <c r="AQ12" s="51">
         <f>AVERAGE(AK24:AK28)</f>
-        <v>76.441373242393425</v>
+        <v>22.829902899873705</v>
       </c>
       <c r="AR12" s="51">
         <f t="shared" ref="AR12:AS12" si="14">AVERAGE(AL24:AL28)</f>
-        <v>43.603490967774732</v>
+        <v>8.996773900297816</v>
       </c>
       <c r="AS12" s="51">
         <f t="shared" si="14"/>
-        <v>66.584018832432477</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="51">
         <f>AVERAGE(AN24:AN28)</f>
-        <v>34.389610529178121</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="51">
         <f>STDEV(AK24:AK28)</f>
-        <v>33.625073546705785</v>
+        <v>12.389286378880856</v>
       </c>
       <c r="AW12" s="51">
         <f t="shared" ref="AW12:AY12" si="15">STDEV(AL24:AL28)</f>
-        <v>18.108546857188312</v>
+        <v>8.3109911703508637</v>
       </c>
       <c r="AX12" s="51">
         <f t="shared" si="15"/>
-        <v>45.44733815255681</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="51">
         <f t="shared" si="15"/>
-        <v>14.889370690673987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8949,95 +8501,78 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC13">
-        <v>5</v>
-      </c>
-      <c r="AD13">
-        <v>42.544094772365298</v>
-      </c>
-      <c r="AE13">
-        <v>37.12142238654117</v>
-      </c>
-      <c r="AF13">
-        <v>27.202941017470888</v>
-      </c>
-      <c r="AG13">
-        <v>48.041648597857254</v>
-      </c>
-      <c r="AH13">
-        <v>56.142675390472796</v>
-      </c>
-      <c r="AI13">
-        <v>42.21055643294148</v>
-      </c>
       <c r="AJ13">
         <v>5</v>
       </c>
       <c r="AK13" s="51">
-        <v>46.227697325304881</v>
+        <f>S10</f>
+        <v>46.61544808322666</v>
       </c>
       <c r="AL13" s="51">
-        <v>28.653097563788805</v>
+        <f>S10</f>
+        <v>46.61544808322666</v>
       </c>
       <c r="AM13" s="51">
-        <v>93.477269964414347</v>
+        <f>S12</f>
+        <v>0</v>
       </c>
       <c r="AN13" s="51">
-        <v>48.041648597857254</v>
+        <f>S13</f>
+        <v>0</v>
       </c>
       <c r="AP13" s="51">
         <v>0.5</v>
       </c>
       <c r="AQ13" s="51">
         <f>AVERAGE(AK31:AK35)</f>
-        <v>86.538268899400876</v>
+        <v>15.875485687217978</v>
       </c>
       <c r="AR13" s="51">
         <f t="shared" ref="AR13:AT13" si="16">AVERAGE(AL31:AL35)</f>
-        <v>97.146927387997053</v>
+        <v>10.175165829785934</v>
       </c>
       <c r="AS13" s="51">
         <f t="shared" si="16"/>
-        <v>113.66615650837559</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="51">
         <f t="shared" si="16"/>
-        <v>49.52597855728667</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="51">
         <f>STDEV(AK31:AK35)</f>
-        <v>13.46885369542389</v>
+        <v>8.0598506650974251</v>
       </c>
       <c r="AW13" s="51">
         <f t="shared" ref="AW13:AY13" si="17">STDEV(AL31:AL35)</f>
-        <v>46.444516617562471</v>
+        <v>4.2523523396404856</v>
       </c>
       <c r="AX13" s="51">
         <f t="shared" si="17"/>
-        <v>25.705176147360486</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="51">
         <f t="shared" si="17"/>
-        <v>28.835252902115773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9048,51 +8583,55 @@
         <v>5</v>
       </c>
       <c r="AK14" s="51">
-        <v>55.97320787662612</v>
+        <f>T10</f>
+        <v>33.105890714493697</v>
       </c>
       <c r="AL14" s="51">
-        <v>49.819674828324601</v>
+        <f>T11</f>
+        <v>19.646882704388499</v>
       </c>
       <c r="AM14" s="51">
-        <v>58.523499553598128</v>
+        <f>T12</f>
+        <v>0</v>
       </c>
       <c r="AN14" s="51">
-        <v>56.142675390472796</v>
+        <f>T13</f>
+        <v>0</v>
       </c>
       <c r="AP14" s="51">
         <v>0.25</v>
       </c>
       <c r="AQ14" s="51">
         <f>AVERAGE(AK38:AK42)</f>
-        <v>74.148366970285608</v>
+        <v>16.342063681868051</v>
       </c>
       <c r="AR14" s="51">
         <f t="shared" ref="AR14:AT14" si="18">AVERAGE(AL38:AL42)</f>
-        <v>98.612674800643987</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="51">
         <f t="shared" si="18"/>
-        <v>55.748621420957761</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="51">
         <f t="shared" si="18"/>
-        <v>76.053722038548841</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="51">
         <f>STDEV(AK38:AK42)</f>
-        <v>54.644529411001635</v>
+        <v>3.958685801148083</v>
       </c>
       <c r="AW14" s="51">
         <f t="shared" ref="AW14:AY14" si="19">STDEV(AL38:AL42)</f>
-        <v>55.208019895917701</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="51">
         <f t="shared" si="19"/>
-        <v>41.168726141069897</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="51">
         <f t="shared" si="19"/>
-        <v>13.529198243204812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.25">
@@ -9167,27 +8706,6 @@
       </c>
       <c r="X15" s="62">
         <v>2.013888888888889E-2</v>
-      </c>
-      <c r="AC15">
-        <v>2.5</v>
-      </c>
-      <c r="AD15">
-        <v>25.495097567963924</v>
-      </c>
-      <c r="AE15">
-        <v>95.036834964133774</v>
-      </c>
-      <c r="AF15">
-        <v>35.114099732158877</v>
-      </c>
-      <c r="AG15">
-        <v>92.17917335276988</v>
-      </c>
-      <c r="AH15">
-        <v>32.249030993194197</v>
-      </c>
-      <c r="AI15">
-        <v>56.014847322044126</v>
       </c>
       <c r="AK15" s="51"/>
       <c r="AL15" s="51"/>
@@ -9266,27 +8784,6 @@
       </c>
       <c r="X16" s="62">
         <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="AC16">
-        <v>2.5</v>
-      </c>
-      <c r="AD16">
-        <v>32.449961479175904</v>
-      </c>
-      <c r="AE16">
-        <v>20.518284528683193</v>
-      </c>
-      <c r="AF16">
-        <v>51.623637996561229</v>
-      </c>
-      <c r="AG16">
-        <v>20</v>
-      </c>
-      <c r="AH16">
-        <v>53.600373133029585</v>
-      </c>
-      <c r="AI16">
-        <v>35.638451427489983</v>
       </c>
       <c r="AK16" s="51"/>
       <c r="AL16" s="51"/>
@@ -9343,41 +8840,24 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC17">
-        <v>2.5</v>
-      </c>
-      <c r="AD17">
-        <v>91.021975368588869</v>
-      </c>
-      <c r="AE17">
-        <v>17.888543819998318</v>
-      </c>
-      <c r="AF17">
-        <v>98.005101908012932</v>
-      </c>
-      <c r="AG17">
-        <v>21.095023109728988</v>
-      </c>
-      <c r="AH17">
-        <v>28.301943396169811</v>
-      </c>
-      <c r="AI17">
-        <v>51.262517520499784</v>
-      </c>
       <c r="AJ17">
         <v>2.5</v>
       </c>
       <c r="AK17" s="51">
-        <v>25.495097567963924</v>
+        <f>P15</f>
+        <v>32.649655434629018</v>
       </c>
       <c r="AL17" s="51">
-        <v>32.449961479175904</v>
+        <f>P16</f>
+        <v>17.804493814764857</v>
       </c>
       <c r="AM17" s="51">
-        <v>91.021975368588869</v>
+        <f>P17</f>
+        <v>0</v>
       </c>
       <c r="AN17" s="51">
-        <v>53.366656256505337</v>
+        <f>P18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9430,60 +8910,43 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC18">
-        <v>2.5</v>
-      </c>
-      <c r="AD18">
-        <v>53.366656256505337</v>
-      </c>
-      <c r="AE18">
-        <v>17.888543819998318</v>
-      </c>
-      <c r="AF18">
-        <v>17.720045146669349</v>
-      </c>
-      <c r="AG18">
-        <v>57.55866572463264</v>
-      </c>
-      <c r="AH18">
-        <v>21.840329667841555</v>
-      </c>
-      <c r="AI18">
-        <v>33.674848123129443</v>
-      </c>
       <c r="AJ18">
         <v>2.5</v>
       </c>
       <c r="AK18" s="51">
-        <v>95.036834964133774</v>
+        <f>Q15</f>
+        <v>30.413812651491099</v>
       </c>
       <c r="AL18" s="51">
-        <v>20.518284528683193</v>
+        <f>Q16</f>
+        <v>24.758836806279895</v>
       </c>
       <c r="AM18" s="51">
-        <v>17.888543819998318</v>
+        <f>Q17</f>
+        <v>0</v>
       </c>
       <c r="AN18" s="51">
-        <v>17.888543819998318</v>
+        <f>Q18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -9494,16 +8957,20 @@
         <v>2.5</v>
       </c>
       <c r="AK19" s="51">
-        <v>35.114099732158877</v>
+        <f>R15</f>
+        <v>18.439088914585774</v>
       </c>
       <c r="AL19" s="51">
-        <v>51.623637996561229</v>
+        <f>R16</f>
+        <v>9.8994949366116654</v>
       </c>
       <c r="AM19" s="51">
-        <v>98.005101908012932</v>
+        <f>R17</f>
+        <v>0</v>
       </c>
       <c r="AN19" s="51">
-        <v>17.720045146669349</v>
+        <f>R18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
@@ -9579,41 +9046,24 @@
       <c r="X20" s="62">
         <v>4.3055555555555562E-2</v>
       </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>89</v>
-      </c>
-      <c r="AE20">
-        <v>56.727418414731339</v>
-      </c>
-      <c r="AF20">
-        <v>88.141930997681229</v>
-      </c>
-      <c r="AG20">
-        <v>30.413812651491099</v>
-      </c>
-      <c r="AH20">
-        <v>117.92370414806346</v>
-      </c>
-      <c r="AI20">
-        <v>76.441373242393425</v>
-      </c>
       <c r="AJ20">
         <v>2.5</v>
       </c>
       <c r="AK20" s="51">
-        <v>92.17917335276988</v>
+        <f>S15</f>
+        <v>30.463092423455635</v>
       </c>
       <c r="AL20" s="51">
-        <v>20</v>
+        <f>S16</f>
+        <v>38.897300677553446</v>
       </c>
       <c r="AM20" s="51">
-        <v>21.095023109728988</v>
+        <f>S17</f>
+        <v>0</v>
       </c>
       <c r="AN20" s="51">
-        <v>57.55866572463264</v>
+        <f>S18</f>
+        <v>0</v>
       </c>
       <c r="AP20" s="51"/>
     </row>
@@ -9690,41 +9140,24 @@
       <c r="X21" s="62">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>55.154328932550705</v>
-      </c>
-      <c r="AE21">
-        <v>53.235326616824658</v>
-      </c>
-      <c r="AF21">
-        <v>12.165525060596439</v>
-      </c>
-      <c r="AG21">
-        <v>44.011362169330773</v>
-      </c>
-      <c r="AH21">
-        <v>53.450912059571067</v>
-      </c>
-      <c r="AI21">
-        <v>43.603490967774732</v>
-      </c>
       <c r="AJ21">
         <v>2.5</v>
       </c>
       <c r="AK21" s="51">
-        <v>32.249030993194197</v>
+        <f>U15</f>
+        <v>25.931491087423133</v>
       </c>
       <c r="AL21" s="51">
-        <v>53.600373133029585</v>
+        <f>T16</f>
+        <v>8</v>
       </c>
       <c r="AM21" s="51">
-        <v>28.301943396169811</v>
+        <f>T17</f>
+        <v>0</v>
       </c>
       <c r="AN21" s="51">
-        <v>21.840329667841555</v>
+        <f>T18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
@@ -9777,27 +9210,6 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>100.00499987500625</v>
-      </c>
-      <c r="AE22">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="AF22">
-        <v>114.35471131527551</v>
-      </c>
-      <c r="AG22">
-        <v>31.32091952673165</v>
-      </c>
-      <c r="AH22">
-        <v>79.429213769242352</v>
-      </c>
-      <c r="AI22">
-        <v>66.584018832432477</v>
-      </c>
       <c r="AK22" s="51"/>
       <c r="AL22" s="51"/>
       <c r="AM22" s="51"/>
@@ -9853,49 +9265,28 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>32.202484376209235</v>
-      </c>
-      <c r="AE23">
-        <v>59.169248769948062</v>
-      </c>
-      <c r="AF23">
-        <v>22.561028345356956</v>
-      </c>
-      <c r="AG23">
-        <v>34.928498393145958</v>
-      </c>
-      <c r="AH23">
-        <v>23.086792761230392</v>
-      </c>
-      <c r="AI23">
-        <v>34.389610529178121</v>
-      </c>
       <c r="AK23" s="51"/>
       <c r="AL23" s="51"/>
       <c r="AM23" s="51"/>
       <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -9906,16 +9297,20 @@
         <v>1</v>
       </c>
       <c r="AK24" s="51">
-        <v>89</v>
+        <f>P20</f>
+        <v>12.529964086141668</v>
       </c>
       <c r="AL24" s="51">
-        <v>55.154328932550705</v>
+        <f>P21</f>
+        <v>18.027756377319946</v>
       </c>
       <c r="AM24" s="51">
-        <v>100.00499987500625</v>
+        <f>P22</f>
+        <v>0</v>
       </c>
       <c r="AN24" s="51">
-        <v>32.202484376209235</v>
+        <f>P23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
@@ -9991,41 +9386,24 @@
       <c r="W25" s="62">
         <v>6.8749999999999992E-2</v>
       </c>
-      <c r="AC25">
-        <v>0.5</v>
-      </c>
-      <c r="AD25">
-        <v>77.317527120310828</v>
-      </c>
-      <c r="AE25">
-        <v>103.07764064044152</v>
-      </c>
-      <c r="AF25">
-        <v>68.87670143089025</v>
-      </c>
-      <c r="AG25">
-        <v>92.617492948146676</v>
-      </c>
-      <c r="AH25">
-        <v>90.801982357215081</v>
-      </c>
-      <c r="AI25">
-        <v>86.538268899400876</v>
-      </c>
       <c r="AJ25">
         <v>1</v>
       </c>
       <c r="AK25" s="51">
-        <v>56.727418414731339</v>
+        <f>Q20</f>
+        <v>13</v>
       </c>
       <c r="AL25" s="51">
-        <v>53.235326616824658</v>
+        <f>Q21</f>
+        <v>17.720045146669349</v>
       </c>
       <c r="AM25" s="51">
-        <v>7.810249675906654</v>
+        <f>Q22</f>
+        <v>0</v>
       </c>
       <c r="AN25" s="51">
-        <v>59.169248769948062</v>
+        <f>Q23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.25">
@@ -10101,41 +9479,24 @@
       <c r="X26" s="62">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="AC26">
-        <v>0.5</v>
-      </c>
-      <c r="AD26">
-        <v>121.16517651536682</v>
-      </c>
-      <c r="AE26">
-        <v>79.309520235593411</v>
-      </c>
-      <c r="AF26">
-        <v>112.60550608207397</v>
-      </c>
-      <c r="AG26">
-        <v>26.076809620810597</v>
-      </c>
-      <c r="AH26">
-        <v>146.57762448614045</v>
-      </c>
-      <c r="AI26">
-        <v>97.146927387997053</v>
-      </c>
       <c r="AJ26">
         <v>1</v>
       </c>
       <c r="AK26" s="51">
-        <v>88.141930997681229</v>
+        <f>R20</f>
+        <v>34.481879299133332</v>
       </c>
       <c r="AL26" s="51">
-        <v>12.165525060596439</v>
+        <f>R21</f>
+        <v>2.2360679774997898</v>
       </c>
       <c r="AM26" s="51">
-        <v>114.35471131527551</v>
+        <f>R22</f>
+        <v>0</v>
       </c>
       <c r="AN26" s="51">
-        <v>22.561028345356956</v>
+        <f>R23</f>
+        <v>0</v>
       </c>
       <c r="AP26" s="51"/>
     </row>
@@ -10189,41 +9550,24 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC27">
-        <v>0.5</v>
-      </c>
-      <c r="AD27">
-        <v>100.56838469419701</v>
-      </c>
-      <c r="AE27">
-        <v>104.35037134576953</v>
-      </c>
-      <c r="AF27">
-        <v>154.25303886795876</v>
-      </c>
-      <c r="AG27">
-        <v>87.664131775772461</v>
-      </c>
-      <c r="AH27">
-        <v>121.49485585818027</v>
-      </c>
-      <c r="AI27">
-        <v>113.66615650837559</v>
-      </c>
       <c r="AJ27">
         <v>1</v>
       </c>
       <c r="AK27" s="51">
-        <v>30.413812651491099</v>
+        <f>S20</f>
+        <v>38.013155617496423</v>
       </c>
       <c r="AL27" s="51">
-        <v>44.011362169330773</v>
+        <f>S21</f>
+        <v>1</v>
       </c>
       <c r="AM27" s="51">
-        <v>31.32091952673165</v>
+        <f>S22</f>
+        <v>0</v>
       </c>
       <c r="AN27" s="51">
-        <v>34.928498393145958</v>
+        <f>S23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10276,60 +9620,43 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC28">
-        <v>0.5</v>
-      </c>
-      <c r="AD28">
-        <v>15.811388300841896</v>
-      </c>
-      <c r="AE28">
-        <v>56.435804238089851</v>
-      </c>
-      <c r="AF28">
-        <v>40.496913462633174</v>
-      </c>
-      <c r="AG28">
-        <v>94.069123520951337</v>
-      </c>
-      <c r="AH28">
-        <v>40.8166632639171</v>
-      </c>
-      <c r="AI28">
-        <v>49.52597855728667</v>
-      </c>
       <c r="AJ28">
         <v>1</v>
       </c>
       <c r="AK28" s="51">
-        <v>117.92370414806346</v>
+        <f>T20</f>
+        <v>16.124515496597098</v>
       </c>
       <c r="AL28" s="51">
-        <v>53.450912059571067</v>
+        <f>T21</f>
+        <v>6</v>
       </c>
       <c r="AM28" s="51">
-        <v>79.429213769242352</v>
+        <f>T22</f>
+        <v>0</v>
       </c>
       <c r="AN28" s="51">
-        <v>23.086792761230392</v>
+        <f>T23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="72"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10414,27 +9741,6 @@
       <c r="W30" s="62">
         <v>0.11875000000000001</v>
       </c>
-      <c r="AC30">
-        <v>0.25</v>
-      </c>
-      <c r="AD30">
-        <v>20.615528128088304</v>
-      </c>
-      <c r="AE30">
-        <v>122.80065146407001</v>
-      </c>
-      <c r="AF30">
-        <v>86.092973000123536</v>
-      </c>
-      <c r="AG30">
-        <v>127.81627439414747</v>
-      </c>
-      <c r="AH30">
-        <v>13.416407864998739</v>
-      </c>
-      <c r="AI30">
-        <v>74.148366970285608</v>
-      </c>
       <c r="AK30" s="51"/>
       <c r="AL30" s="51"/>
       <c r="AM30" s="51"/>
@@ -10490,41 +9796,24 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC31">
-        <v>0.25</v>
-      </c>
-      <c r="AD31">
-        <v>26.305892875931811</v>
-      </c>
-      <c r="AE31">
-        <v>92.282175960474618</v>
-      </c>
-      <c r="AF31">
-        <v>127.47156545677157</v>
-      </c>
-      <c r="AG31">
-        <v>74.249579123386283</v>
-      </c>
-      <c r="AH31">
-        <v>172.75416058665562</v>
-      </c>
-      <c r="AI31">
-        <v>98.612674800643987</v>
-      </c>
       <c r="AJ31">
         <v>0.5</v>
       </c>
       <c r="AK31" s="51">
-        <v>77.317527120310828</v>
+        <f>P25</f>
+        <v>20.124611797498108</v>
       </c>
       <c r="AL31" s="51">
-        <v>121.16517651536682</v>
+        <f>P26</f>
+        <v>14.422205101855956</v>
       </c>
       <c r="AM31" s="51">
-        <v>100.56838469419701</v>
+        <f>P27</f>
+        <v>0</v>
       </c>
       <c r="AN31" s="51">
-        <v>15.811388300841896</v>
+        <f>P28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.25">
@@ -10577,41 +9866,24 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC32">
-        <v>0.25</v>
-      </c>
-      <c r="AD32">
-        <v>61.814237842102365</v>
-      </c>
-      <c r="AE32">
-        <v>111.66467659918243</v>
-      </c>
-      <c r="AF32">
-        <v>37</v>
-      </c>
-      <c r="AG32">
-        <v>68.264192663504048</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>55.748621420957761</v>
-      </c>
       <c r="AJ32">
         <v>0.5</v>
       </c>
       <c r="AK32" s="51">
-        <v>103.07764064044152</v>
+        <f>Q25</f>
+        <v>7</v>
       </c>
       <c r="AL32" s="51">
-        <v>79.309520235593411</v>
+        <f>Q26</f>
+        <v>4</v>
       </c>
       <c r="AM32" s="51">
-        <v>104.35037134576953</v>
+        <f>Q27</f>
+        <v>0</v>
       </c>
       <c r="AN32" s="51">
-        <v>56.435804238089851</v>
+        <f>Q28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10664,75 +9936,62 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC33">
-        <v>0.25</v>
-      </c>
-      <c r="AD33">
-        <v>94.175368329515976</v>
-      </c>
-      <c r="AE33">
-        <v>64.845971347493901</v>
-      </c>
-      <c r="AF33">
-        <v>84.219950130595535</v>
-      </c>
-      <c r="AG33">
-        <v>61.522353661088097</v>
-      </c>
-      <c r="AH33">
-        <v>75.504966724050675</v>
-      </c>
-      <c r="AI33">
-        <v>76.053722038548841</v>
-      </c>
       <c r="AJ33">
         <v>0.5</v>
       </c>
       <c r="AK33" s="51">
-        <v>68.87670143089025</v>
+        <f>R25</f>
+        <v>10.04987562112089</v>
       </c>
       <c r="AL33" s="51">
-        <v>112.60550608207397</v>
+        <f>R26</f>
+        <v>8</v>
       </c>
       <c r="AM33" s="51">
-        <v>154.25303886795876</v>
+        <f>R27</f>
+        <v>0</v>
       </c>
       <c r="AN33" s="51">
-        <v>40.496913462633174</v>
+        <f>R28</f>
+        <v>0</v>
       </c>
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
       <c r="AK34" s="51">
-        <v>92.617492948146676</v>
+        <f>S25</f>
+        <v>15</v>
       </c>
       <c r="AL34" s="51">
-        <v>26.076809620810597</v>
+        <f>S26</f>
+        <v>13.45362404707371</v>
       </c>
       <c r="AM34" s="51">
-        <v>87.664131775772461</v>
+        <f>S27</f>
+        <v>0</v>
       </c>
       <c r="AN34" s="51">
-        <v>94.069123520951337</v>
+        <f>S28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.25">
@@ -10756,16 +10015,20 @@
         <v>0.5</v>
       </c>
       <c r="AK35" s="51">
-        <v>90.801982357215081</v>
+        <f>T25</f>
+        <v>27.202941017470888</v>
       </c>
       <c r="AL35" s="51">
-        <v>146.57762448614045</v>
+        <f>T26</f>
+        <v>11</v>
       </c>
       <c r="AM35" s="51">
-        <v>121.49485585818027</v>
+        <f>T27</f>
+        <v>0</v>
       </c>
       <c r="AN35" s="51">
-        <v>40.8166632639171</v>
+        <f>T28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.25">
@@ -10833,16 +10096,20 @@
         <v>0.25</v>
       </c>
       <c r="AK38" s="51">
-        <v>20.615528128088304</v>
+        <f>P30</f>
+        <v>16.124515496597098</v>
       </c>
       <c r="AL38" s="51">
-        <v>26.305892875931811</v>
+        <f>P31</f>
+        <v>0</v>
       </c>
       <c r="AM38" s="51">
-        <v>61.814237842102365</v>
+        <f>P32</f>
+        <v>0</v>
       </c>
       <c r="AN38" s="51">
-        <v>94.175368329515976</v>
+        <f>P33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.25">
@@ -10850,16 +10117,20 @@
         <v>0.25</v>
       </c>
       <c r="AK39" s="51">
-        <v>122.80065146407001</v>
+        <f>Q30</f>
+        <v>22.472205054244231</v>
       </c>
       <c r="AL39" s="51">
-        <v>92.282175960474618</v>
+        <f>Q31</f>
+        <v>0</v>
       </c>
       <c r="AM39" s="51">
-        <v>111.66467659918243</v>
+        <f>Q32</f>
+        <v>0</v>
       </c>
       <c r="AN39" s="51">
-        <v>64.845971347493901</v>
+        <f>Q33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.25">
@@ -10867,16 +10138,20 @@
         <v>0.25</v>
       </c>
       <c r="AK40" s="51">
-        <v>86.092973000123536</v>
+        <f>R30</f>
+        <v>16.15549442140351</v>
       </c>
       <c r="AL40" s="51">
-        <v>127.47156545677157</v>
+        <f>R31</f>
+        <v>0</v>
       </c>
       <c r="AM40" s="51">
-        <v>37</v>
+        <f>R32</f>
+        <v>0</v>
       </c>
       <c r="AN40" s="51">
-        <v>84.219950130595535</v>
+        <f>R33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:42" x14ac:dyDescent="0.25">
@@ -10884,16 +10159,20 @@
         <v>0.25</v>
       </c>
       <c r="AK41" s="51">
-        <v>127.81627439414747</v>
+        <f>S30</f>
+        <v>15.556349186104045</v>
       </c>
       <c r="AL41" s="51">
-        <v>74.249579123386283</v>
+        <f>S31</f>
+        <v>0</v>
       </c>
       <c r="AM41" s="51">
-        <v>68.264192663504048</v>
+        <f>S32</f>
+        <v>0</v>
       </c>
       <c r="AN41" s="51">
-        <v>61.522353661088097</v>
+        <f>S33</f>
+        <v>0</v>
       </c>
       <c r="AP41" s="51"/>
     </row>
@@ -10902,16 +10181,20 @@
         <v>0.25</v>
       </c>
       <c r="AK42" s="51">
-        <v>13.416407864998739</v>
+        <f>T30</f>
+        <v>11.401754250991379</v>
       </c>
       <c r="AL42" s="51">
-        <v>172.75416058665562</v>
+        <f>T31</f>
+        <v>0</v>
       </c>
       <c r="AM42" s="51">
+        <f>T32</f>
         <v>0</v>
       </c>
       <c r="AN42" s="51">
-        <v>75.504966724050675</v>
+        <f>U33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.25">

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="10965" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Tests: 10 meter movement</t>
   </si>
@@ -115,16 +115,13 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
-  </si>
-  <si>
     <t>Step Size</t>
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -161,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,6 +868,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,42 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,8 +1290,65 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Meters Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>2.5 Meters Forward</c:v>
           </c:tx>
@@ -1365,7 +1431,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>2.5 Meters Backwards</c:v>
           </c:tx>
@@ -1451,8 +1517,136 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="11"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2.5 Meters Right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>2.5 Meters Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>1 Meter Forward</c:v>
           </c:tx>
@@ -1534,8 +1728,215 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="14"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>1 Meter Backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>1 Meter Right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>1 Meter Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="6"/>
+          <c:order val="12"/>
           <c:tx>
             <c:v>0.5 Meter Forward</c:v>
           </c:tx>
@@ -1617,91 +2018,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>0.25 Meter Forward</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$30:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6CB8-402B-B9F2-4417F1BC8B6A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="13"/>
           <c:tx>
             <c:v>0.5 Meters Backwards</c:v>
           </c:tx>
@@ -1786,6 +2104,408 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>0.5 Meters Right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>0.5 Meters Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:v>0.25 Meter Forward</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6CB8-402B-B9F2-4417F1BC8B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:v>0.25 Meter Backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:v>0.25 Meters Right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$32:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:v>0.25 Meters Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8619-424A-A6B2-B13B85D60BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1794,11 +2514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171229760"/>
-        <c:axId val="171230336"/>
+        <c:axId val="156024832"/>
+        <c:axId val="156025408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171229760"/>
+        <c:axId val="156024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,12 +2617,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171230336"/>
+        <c:crossAx val="156025408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171230336"/>
+        <c:axId val="156025408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2721,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171229760"/>
+        <c:crossAx val="156024832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2150,19 +2870,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>37.142600766787339</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.739059775308796</c:v>
+                    <c:v>17.429859437184227</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>45.44733815255681</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>25.705176147360486</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>41.168726141069897</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2174,19 +2894,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>37.142600766787339</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.739059775308796</c:v>
+                    <c:v>17.429859437184227</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>45.44733815255681</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>25.705176147360486</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>41.168726141069897</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2223,19 +2943,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.53328228913918</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.262517520499784</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.584018832432477</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.66615650837559</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.748621420957761</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,11 +2975,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311972928"/>
-        <c:axId val="311974080"/>
+        <c:axId val="186889856"/>
+        <c:axId val="186890432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311972928"/>
+        <c:axId val="186889856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,12 +3007,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311974080"/>
+        <c:crossAx val="186890432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311974080"/>
+        <c:axId val="186890432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,7 +3041,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311972928"/>
+        <c:crossAx val="186889856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,19 +3123,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>10.946970221336516</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20.012639877217772</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.889370690673987</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.835252902115773</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>13.529198243204812</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2427,19 +3147,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>10.946970221336516</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20.012639877217772</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.889370690673987</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.835252902115773</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>13.529198243204812</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2476,19 +3196,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.21055643294148</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.674848123129443</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.389610529178121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.52597855728667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.053722038548841</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,11 +3228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311608448"/>
-        <c:axId val="311609024"/>
+        <c:axId val="156016640"/>
+        <c:axId val="156017216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311608448"/>
+        <c:axId val="156016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,12 +3260,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311609024"/>
+        <c:crossAx val="156017216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311609024"/>
+        <c:axId val="156017216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +3294,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311608448"/>
+        <c:crossAx val="156016640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2772,7 +3492,7 @@
                   <c:v>6.3560994328282812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17.962182495454165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,7 +3571,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.7723478758647238</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2977,11 +3697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199429632"/>
-        <c:axId val="171232640"/>
+        <c:axId val="186310656"/>
+        <c:axId val="156027712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199429632"/>
+        <c:axId val="186310656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +3744,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171232640"/>
+        <c:crossAx val="156027712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3032,7 +3752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171232640"/>
+        <c:axId val="156027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3803,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199429632"/>
+        <c:crossAx val="186310656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3244,66 +3964,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3313,66 +3973,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.687872655688281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66.91038783328041</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.12142238654117</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.036834964133774</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.518284528683193</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.888543819998318</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.888543819998318</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.727418414731339</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53.235326616824658</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.810249675906654</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59.169248769948062</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>103.07764064044152</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>79.309520235593411</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104.35037134576953</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56.435804238089851</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122.80065146407001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>92.282175960474618</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>111.66467659918243</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64.845971347493901</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3417,66 +4017,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3486,66 +4026,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>66.030296076876709</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.059928172283335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85.702975444263316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.202941017470888</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.114099732158877</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51.623637996561229</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98.005101908012932</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.720045146669349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88.141930997681229</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.165525060596439</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>114.35471131527551</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.561028345356956</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>68.87670143089025</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>112.60550608207397</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154.25303886795876</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40.496913462633174</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>86.092973000123536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>127.47156545677157</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>84.219950130595535</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3590,66 +4070,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3659,66 +4079,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
-                <c:pt idx="9">
-                  <c:v>46.227697325304881</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.653097563788805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.477269964414347</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.041648597857254</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92.17917335276988</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.095023109728988</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>57.55866572463264</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.413812651491099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.011362169330773</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31.32091952673165</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34.928498393145958</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92.617492948146676</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.076809620810597</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.664131775772461</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>94.069123520951337</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>127.81627439414747</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>74.249579123386283</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>68.264192663504048</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>61.522353661088097</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3763,66 +4123,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>43.324358044868937</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.114192571832419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.449961479175904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91.021975368588869</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.202484376209235</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.317527120310828</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.615528128088304</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.305892875931811</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>61.814237842102365</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.175368329515976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3832,66 +4132,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>55.97320787662612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.819674828324601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.523499553598128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.142675390472796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.249030993194197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.600373133029585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.301943396169811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.840329667841555</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117.92370414806346</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53.450912059571067</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.429213769242352</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.086792761230392</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90.801982357215081</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>146.57762448614045</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>121.49485585818027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.8166632639171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.416407864998739</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>172.75416058665562</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75.504966724050675</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3910,11 +4150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171234944"/>
-        <c:axId val="171235520"/>
+        <c:axId val="156030016"/>
+        <c:axId val="156030592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171234944"/>
+        <c:axId val="156030016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,12 +4216,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171235520"/>
+        <c:crossAx val="156030592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171235520"/>
+        <c:axId val="156030592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,7 +4297,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171234944"/>
+        <c:crossAx val="156030016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4178,138 +4418,168 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE:$AE</c:f>
+              <c:f>Sheet1!$AK$10:$AK$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>33.105890714493697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.704699910719626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.324358044868937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.61544808322666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.105890714493697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.649655434629018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.413812651491099</c:v>
+                </c:pt>
                 <c:pt idx="9">
+                  <c:v>18.439088914585774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.463092423455635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.931491087423133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.529964086141668</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.687872655688281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66.91038783328041</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.12142238654117</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95.036834964133774</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.518284528683193</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.888543819998318</c:v>
+                  <c:v>34.481879299133332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.888543819998318</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.727418414731339</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53.235326616824658</c:v>
+                  <c:v>38.013155617496423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.124515496597098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.810249675906654</c:v>
+                  <c:v>20.124611797498108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.169248769948062</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.04987562112089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103.07764064044152</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79.309520235593411</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104.35037134576953</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56.435804238089851</c:v>
+                  <c:v>27.202941017470888</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.124515496597098</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>122.80065146407001</c:v>
+                  <c:v>22.472205054244231</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.282175960474618</c:v>
+                  <c:v>16.15549442140351</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>111.66467659918243</c:v>
+                  <c:v>15.556349186104045</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>64.845971347493901</c:v>
+                  <c:v>11.401754250991379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,11 +4599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200672384"/>
-        <c:axId val="200672960"/>
+        <c:axId val="186614336"/>
+        <c:axId val="186614912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200672384"/>
+        <c:axId val="186614336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,12 +4670,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200672960"/>
+        <c:crossAx val="186614912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200672960"/>
+        <c:axId val="186614912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4714,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4481,7 +4751,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200672384"/>
+        <c:crossAx val="186614336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4557,7 +4827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4602,138 +4871,168 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AF:$AF</c:f>
+              <c:f>Sheet1!$AL$10:$AL$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>20.09975124224178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4339811320566032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.041594578792296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.61544808322666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.646882704388499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.804493814764857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.758836806279895</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.030296076876709</c:v>
+                  <c:v>9.8994949366116654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.059928172283335</c:v>
+                  <c:v>38.897300677553446</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.702975444263316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.202941017470888</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.114099732158877</c:v>
+                  <c:v>18.027756377319946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.623637996561229</c:v>
+                  <c:v>17.720045146669349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.005101908012932</c:v>
+                  <c:v>2.2360679774997898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.720045146669349</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88.141930997681229</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.165525060596439</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.35471131527551</c:v>
+                  <c:v>14.422205101855956</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.561028345356956</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.87670143089025</c:v>
+                  <c:v>13.45362404707371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>112.60550608207397</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154.25303886795876</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40.496913462633174</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.041594578792296</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>86.092973000123536</c:v>
+                  <c:v>46.389654018972806</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.47156545677157</c:v>
+                  <c:v>10.295630140987001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37</c:v>
+                  <c:v>15.297058540778355</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84.219950130595535</c:v>
+                  <c:v>9.2195444572928871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,11 +5052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200674688"/>
-        <c:axId val="200675264"/>
+        <c:axId val="186616064"/>
+        <c:axId val="186616640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200674688"/>
+        <c:axId val="186616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +5078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4819,12 +5117,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200675264"/>
+        <c:crossAx val="186616640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200675264"/>
+        <c:axId val="186616640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4860,10 +5158,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4900,7 +5197,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200674688"/>
+        <c:crossAx val="186616064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4914,7 +5211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4976,7 +5272,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5021,138 +5316,168 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.05227865013967</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.544094772365298</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.495097567963924</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.366656256505337</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.154328932550705</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.00499987500625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121.16517651536682</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.56838469419701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.811388300841896</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:f>Sheet1!$AM$10:$AM$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.227697325304881</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.653097563788805</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.477269964414347</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.041648597857254</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92.17917335276988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.095023109728988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.55866572463264</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.413812651491099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.011362169330773</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.32091952673165</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.928498393145958</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92.617492948146676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.076809620810597</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.664131775772461</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>94.069123520951337</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>127.81627439414747</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.249579123386283</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.264192663504048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>61.522353661088097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5172,11 +5497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200676992"/>
-        <c:axId val="200677568"/>
+        <c:axId val="186618368"/>
+        <c:axId val="186618944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200676992"/>
+        <c:axId val="186618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5238,12 +5562,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200677568"/>
+        <c:crossAx val="186618944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200677568"/>
+        <c:axId val="186618944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,10 +5603,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5319,7 +5642,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200676992"/>
+        <c:crossAx val="186618368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5333,7 +5656,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5439,138 +5761,168 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$10:$AD$43</c:f>
+              <c:f>Sheet1!$AJ$10:$AJ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>43.324358044868937</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.114192571832419</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.05227865013967</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.544094772365298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.495097567963924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.449961479175904</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.021975368588869</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.366656256505337</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.154328932550705</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.00499987500625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.202484376209235</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.317527120310828</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>121.16517651536682</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100.56838469419701</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.811388300841896</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.305892875931811</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.814237842102365</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94.175368329515976</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AH$10:$AH$43</c:f>
+              <c:f>Sheet1!$AN$10:$AN$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>55.97320787662612</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.819674828324601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.523499553598128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.142675390472796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.249030993194197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.600373133029585</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.301943396169811</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.840329667841555</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117.92370414806346</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.450912059571067</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.429213769242352</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.086792761230392</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90.801982357215081</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146.57762448614045</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121.49485585818027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.8166632639171</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.416407864998739</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>172.75416058665562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.504966724050675</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,11 +5942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211050496"/>
-        <c:axId val="211051072"/>
+        <c:axId val="186620672"/>
+        <c:axId val="186621248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211050496"/>
+        <c:axId val="186620672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5655,12 +6007,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211051072"/>
+        <c:crossAx val="186621248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211051072"/>
+        <c:axId val="186621248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5698,7 +6050,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5735,7 +6087,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211050496"/>
+        <c:crossAx val="186620672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5857,19 +6209,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>19.943420941291297</c:v>
+                    <c:v>13.636837532079094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.509724707104041</c:v>
+                    <c:v>5.6638758320332245</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.625073546705785</c:v>
+                    <c:v>12.389286378880856</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.46885369542389</c:v>
+                    <c:v>8.0598506650974251</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>54.644529411001635</c:v>
+                    <c:v>3.958685801148083</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5881,19 +6233,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>19.943420941291297</c:v>
+                    <c:v>13.636837532079094</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.509724707104041</c:v>
+                    <c:v>5.6638758320332245</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.625073546705785</c:v>
+                    <c:v>12.389286378880856</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.46885369542389</c:v>
+                    <c:v>8.0598506650974251</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>54.644529411001635</c:v>
+                    <c:v>3.958685801148083</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5937,19 +6289,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.911111864735332</c:v>
+                  <c:v>33.571257493560516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.014847322044126</c:v>
+                  <c:v>27.579428102316932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.441373242393425</c:v>
+                  <c:v>22.829902899873705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.538268899400876</c:v>
+                  <c:v>15.875485687217978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.148366970285608</c:v>
+                  <c:v>16.342063681868051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5969,11 +6321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311970048"/>
-        <c:axId val="311969472"/>
+        <c:axId val="186885248"/>
+        <c:axId val="186885824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311970048"/>
+        <c:axId val="186885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6002,12 +6354,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311969472"/>
+        <c:crossAx val="186885824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311969472"/>
+        <c:axId val="186885824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6037,7 +6389,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311970048"/>
+        <c:crossAx val="186885248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6120,19 +6472,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>18.336147767809965</c:v>
+                    <c:v>14.758115687645194</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.290364477599841</c:v>
+                    <c:v>12.555009586860459</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.108546857188312</c:v>
+                    <c:v>8.3109911703508637</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>46.444516617562471</c:v>
+                    <c:v>4.2523523396404856</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>55.208019895917701</c:v>
+                    <c:v>15.677456926419367</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6144,19 +6496,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>18.336147767809965</c:v>
+                    <c:v>14.758115687645194</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>16.290364477599841</c:v>
+                    <c:v>12.555009586860459</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>18.108546857188312</c:v>
+                    <c:v>8.3109911703508637</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>46.444516617562471</c:v>
+                    <c:v>4.2523523396404856</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>55.208019895917701</c:v>
+                    <c:v>15.677456926419367</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6193,19 +6545,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.066953158383484</c:v>
+                  <c:v>21.567531548141169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.638451427489983</c:v>
+                  <c:v>19.872025247041972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.603490967774732</c:v>
+                  <c:v>8.996773900297816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.146927387997053</c:v>
+                  <c:v>10.175165829785934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.612674800643987</c:v>
+                  <c:v>18.64869634736467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6225,11 +6577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211148800"/>
-        <c:axId val="211155712"/>
+        <c:axId val="186887552"/>
+        <c:axId val="186888128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211148800"/>
+        <c:axId val="186887552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,12 +6609,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211155712"/>
+        <c:crossAx val="186888128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211155712"/>
+        <c:axId val="186888128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,7 +6643,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211148800"/>
+        <c:crossAx val="186887552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8114,8 +8466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8138,48 +8490,48 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="80" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="79" t="s">
-        <v>31</v>
+      <c r="V2" s="65" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8210,51 +8562,51 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="85" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="79"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="65"/>
     </row>
     <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="65"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -8282,13 +8634,13 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="79"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="65"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -8316,13 +8668,13 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="79"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="65"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -8350,13 +8702,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="79"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="65"/>
     </row>
     <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -8384,50 +8736,50 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="79"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="65"/>
       <c r="AK8" s="61"/>
-      <c r="AL8" s="61" t="s">
-        <v>28</v>
+      <c r="AL8" s="63" t="s">
+        <v>26</v>
       </c>
       <c r="AM8" s="61"/>
       <c r="AN8" s="61"/>
       <c r="AP8" s="61"/>
-      <c r="AQ8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="AS8" s="61"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="79"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="65"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -8443,31 +8795,34 @@
       <c r="AA9">
         <v>5</v>
       </c>
-      <c r="AJ9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK9" s="61" t="s">
+      <c r="AJ9" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="61" t="s">
+      <c r="AL9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="61" t="s">
+      <c r="AN9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AQ9" s="61" t="s">
+      <c r="AP9" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AR9" s="61" t="s">
+      <c r="AR9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AS9" s="61" t="s">
+      <c r="AS9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="61" t="s">
+      <c r="AT9" s="64" t="s">
         <v>25</v>
       </c>
       <c r="AV9" s="61" t="s">
@@ -8559,76 +8914,59 @@
       <c r="Y10" s="62">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="AC10">
-        <v>5</v>
-      </c>
-      <c r="AD10">
-        <v>43.324358044868937</v>
-      </c>
-      <c r="AE10">
-        <v>13</v>
-      </c>
-      <c r="AF10">
-        <v>66.030296076876709</v>
-      </c>
-      <c r="AG10">
-        <v>46.227697325304881</v>
-      </c>
-      <c r="AH10">
-        <v>55.97320787662612</v>
-      </c>
-      <c r="AI10">
-        <v>44.911111864735332</v>
-      </c>
       <c r="AJ10">
         <v>5</v>
       </c>
       <c r="AK10" s="51">
-        <v>43.324358044868937</v>
+        <f>P10</f>
+        <v>33.105890714493697</v>
       </c>
       <c r="AL10" s="51">
-        <v>70.114192571832419</v>
+        <f>P11</f>
+        <v>20.09975124224178</v>
       </c>
       <c r="AM10" s="51">
-        <v>153.05227865013967</v>
+        <f>P12</f>
+        <v>0</v>
       </c>
       <c r="AN10" s="51">
-        <v>42.544094772365298</v>
+        <f>P13</f>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>5</v>
       </c>
       <c r="AQ10" s="51">
         <f>AVERAGE(AK10:AK14)</f>
-        <v>44.911111864735332</v>
+        <v>33.571257493560516</v>
       </c>
       <c r="AR10" s="51">
         <f>AVERAGE(AL10:AL14)</f>
-        <v>42.066953158383484</v>
+        <v>21.567531548141169</v>
       </c>
       <c r="AS10" s="51">
         <f>AVERAGE(AM10:AM14)</f>
-        <v>91.53328228913918</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="51">
         <f>AVERAGE(AN10:AN14)</f>
-        <v>42.21055643294148</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="51">
         <f>STDEV(AK10:AK14)</f>
-        <v>19.943420941291297</v>
+        <v>13.636837532079094</v>
       </c>
       <c r="AW10" s="51">
         <f t="shared" ref="AW10:AX10" si="4">STDEV(AL10:AL14)</f>
-        <v>18.336147767809965</v>
+        <v>14.758115687645194</v>
       </c>
       <c r="AX10" s="51">
         <f t="shared" si="4"/>
-        <v>37.142600766787339</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="51">
         <f>STDEV(AN10:AN14)</f>
-        <v>10.946970221336516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
@@ -8705,76 +9043,59 @@
       <c r="X11" s="62">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="AC11">
-        <v>5</v>
-      </c>
-      <c r="AD11">
-        <v>70.114192571832419</v>
-      </c>
-      <c r="AE11">
-        <v>36.687872655688281</v>
-      </c>
-      <c r="AF11">
-        <v>25.059928172283335</v>
-      </c>
-      <c r="AG11">
-        <v>28.653097563788805</v>
-      </c>
-      <c r="AH11">
-        <v>49.819674828324601</v>
-      </c>
-      <c r="AI11">
-        <v>42.066953158383484</v>
-      </c>
       <c r="AJ11">
         <v>5</v>
       </c>
       <c r="AK11" s="51">
-        <v>13</v>
+        <f>Q10</f>
+        <v>11.704699910719626</v>
       </c>
       <c r="AL11" s="51">
-        <v>36.687872655688281</v>
+        <f>Q11</f>
+        <v>9.4339811320566032</v>
       </c>
       <c r="AM11" s="51">
-        <v>66.91038783328041</v>
+        <f>Q12</f>
+        <v>0</v>
       </c>
       <c r="AN11" s="51">
-        <v>37.12142238654117</v>
+        <f>Q13</f>
+        <v>0</v>
       </c>
       <c r="AP11" s="51">
         <v>2.5</v>
       </c>
       <c r="AQ11" s="51">
         <f>AVERAGE(AK17:AK21)</f>
-        <v>56.014847322044126</v>
+        <v>27.579428102316932</v>
       </c>
       <c r="AR11" s="51">
         <f>AVERAGE(AL17:AL21)</f>
-        <v>35.638451427489983</v>
+        <v>19.872025247041972</v>
       </c>
       <c r="AS11" s="51">
         <f>AVERAGE(AM17:AM21)</f>
-        <v>51.262517520499784</v>
+        <v>12.6</v>
       </c>
       <c r="AT11" s="51">
         <f>AVERAGE(AN17:AN21)</f>
-        <v>33.674848123129443</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="51">
         <f>STDEV(AK17:AK21)</f>
-        <v>34.509724707104041</v>
+        <v>5.6638758320332245</v>
       </c>
       <c r="AW11" s="51">
         <f t="shared" ref="AW11:AY11" si="13">STDEV(AL17:AL21)</f>
-        <v>16.290364477599841</v>
+        <v>12.555009586860459</v>
       </c>
       <c r="AX11" s="51">
         <f t="shared" si="13"/>
-        <v>39.739059775308796</v>
+        <v>17.429859437184227</v>
       </c>
       <c r="AY11" s="51">
         <f t="shared" si="13"/>
-        <v>20.012639877217772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
@@ -8827,76 +9148,59 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC12">
-        <v>5</v>
-      </c>
-      <c r="AD12">
-        <v>153.05227865013967</v>
-      </c>
-      <c r="AE12">
-        <v>66.91038783328041</v>
-      </c>
-      <c r="AF12">
-        <v>85.702975444263316</v>
-      </c>
-      <c r="AG12">
-        <v>93.477269964414347</v>
-      </c>
-      <c r="AH12">
-        <v>58.523499553598128</v>
-      </c>
-      <c r="AI12">
-        <v>91.53328228913918</v>
-      </c>
       <c r="AJ12">
         <v>5</v>
       </c>
       <c r="AK12" s="51">
-        <v>66.030296076876709</v>
+        <f>R10</f>
+        <v>43.324358044868937</v>
       </c>
       <c r="AL12" s="51">
-        <v>25.059928172283335</v>
+        <f>R11</f>
+        <v>12.041594578792296</v>
       </c>
       <c r="AM12" s="51">
-        <v>85.702975444263316</v>
+        <f>R12</f>
+        <v>0</v>
       </c>
       <c r="AN12" s="51">
-        <v>27.202941017470888</v>
+        <f>R13</f>
+        <v>0</v>
       </c>
       <c r="AP12" s="51">
         <v>1</v>
       </c>
       <c r="AQ12" s="51">
         <f>AVERAGE(AK24:AK28)</f>
-        <v>76.441373242393425</v>
+        <v>22.829902899873705</v>
       </c>
       <c r="AR12" s="51">
         <f t="shared" ref="AR12:AS12" si="14">AVERAGE(AL24:AL28)</f>
-        <v>43.603490967774732</v>
+        <v>8.996773900297816</v>
       </c>
       <c r="AS12" s="51">
         <f t="shared" si="14"/>
-        <v>66.584018832432477</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="51">
         <f>AVERAGE(AN24:AN28)</f>
-        <v>34.389610529178121</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="51">
         <f>STDEV(AK24:AK28)</f>
-        <v>33.625073546705785</v>
+        <v>12.389286378880856</v>
       </c>
       <c r="AW12" s="51">
         <f t="shared" ref="AW12:AY12" si="15">STDEV(AL24:AL28)</f>
-        <v>18.108546857188312</v>
+        <v>8.3109911703508637</v>
       </c>
       <c r="AX12" s="51">
         <f t="shared" si="15"/>
-        <v>45.44733815255681</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="51">
         <f t="shared" si="15"/>
-        <v>14.889370690673987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8949,95 +9253,78 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC13">
-        <v>5</v>
-      </c>
-      <c r="AD13">
-        <v>42.544094772365298</v>
-      </c>
-      <c r="AE13">
-        <v>37.12142238654117</v>
-      </c>
-      <c r="AF13">
-        <v>27.202941017470888</v>
-      </c>
-      <c r="AG13">
-        <v>48.041648597857254</v>
-      </c>
-      <c r="AH13">
-        <v>56.142675390472796</v>
-      </c>
-      <c r="AI13">
-        <v>42.21055643294148</v>
-      </c>
       <c r="AJ13">
         <v>5</v>
       </c>
       <c r="AK13" s="51">
-        <v>46.227697325304881</v>
+        <f>S10</f>
+        <v>46.61544808322666</v>
       </c>
       <c r="AL13" s="51">
-        <v>28.653097563788805</v>
+        <f>S10</f>
+        <v>46.61544808322666</v>
       </c>
       <c r="AM13" s="51">
-        <v>93.477269964414347</v>
+        <f>S12</f>
+        <v>0</v>
       </c>
       <c r="AN13" s="51">
-        <v>48.041648597857254</v>
+        <f>S13</f>
+        <v>0</v>
       </c>
       <c r="AP13" s="51">
         <v>0.5</v>
       </c>
       <c r="AQ13" s="51">
         <f>AVERAGE(AK31:AK35)</f>
-        <v>86.538268899400876</v>
+        <v>15.875485687217978</v>
       </c>
       <c r="AR13" s="51">
         <f t="shared" ref="AR13:AT13" si="16">AVERAGE(AL31:AL35)</f>
-        <v>97.146927387997053</v>
+        <v>10.175165829785934</v>
       </c>
       <c r="AS13" s="51">
         <f t="shared" si="16"/>
-        <v>113.66615650837559</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="51">
         <f t="shared" si="16"/>
-        <v>49.52597855728667</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="51">
         <f>STDEV(AK31:AK35)</f>
-        <v>13.46885369542389</v>
+        <v>8.0598506650974251</v>
       </c>
       <c r="AW13" s="51">
         <f t="shared" ref="AW13:AY13" si="17">STDEV(AL31:AL35)</f>
-        <v>46.444516617562471</v>
+        <v>4.2523523396404856</v>
       </c>
       <c r="AX13" s="51">
         <f t="shared" si="17"/>
-        <v>25.705176147360486</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="51">
         <f t="shared" si="17"/>
-        <v>28.835252902115773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9048,51 +9335,55 @@
         <v>5</v>
       </c>
       <c r="AK14" s="51">
-        <v>55.97320787662612</v>
+        <f>T10</f>
+        <v>33.105890714493697</v>
       </c>
       <c r="AL14" s="51">
-        <v>49.819674828324601</v>
+        <f>T11</f>
+        <v>19.646882704388499</v>
       </c>
       <c r="AM14" s="51">
-        <v>58.523499553598128</v>
+        <f>T12</f>
+        <v>0</v>
       </c>
       <c r="AN14" s="51">
-        <v>56.142675390472796</v>
+        <f>T13</f>
+        <v>0</v>
       </c>
       <c r="AP14" s="51">
         <v>0.25</v>
       </c>
       <c r="AQ14" s="51">
         <f>AVERAGE(AK38:AK42)</f>
-        <v>74.148366970285608</v>
+        <v>16.342063681868051</v>
       </c>
       <c r="AR14" s="51">
         <f t="shared" ref="AR14:AT14" si="18">AVERAGE(AL38:AL42)</f>
-        <v>98.612674800643987</v>
+        <v>18.64869634736467</v>
       </c>
       <c r="AS14" s="51">
         <f t="shared" si="18"/>
-        <v>55.748621420957761</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="51">
         <f t="shared" si="18"/>
-        <v>76.053722038548841</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="51">
         <f>STDEV(AK38:AK42)</f>
-        <v>54.644529411001635</v>
+        <v>3.958685801148083</v>
       </c>
       <c r="AW14" s="51">
         <f t="shared" ref="AW14:AY14" si="19">STDEV(AL38:AL42)</f>
-        <v>55.208019895917701</v>
+        <v>15.677456926419367</v>
       </c>
       <c r="AX14" s="51">
         <f t="shared" si="19"/>
-        <v>41.168726141069897</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="51">
         <f t="shared" si="19"/>
-        <v>13.529198243204812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.25">
@@ -9167,27 +9458,6 @@
       </c>
       <c r="X15" s="62">
         <v>2.013888888888889E-2</v>
-      </c>
-      <c r="AC15">
-        <v>2.5</v>
-      </c>
-      <c r="AD15">
-        <v>25.495097567963924</v>
-      </c>
-      <c r="AE15">
-        <v>95.036834964133774</v>
-      </c>
-      <c r="AF15">
-        <v>35.114099732158877</v>
-      </c>
-      <c r="AG15">
-        <v>92.17917335276988</v>
-      </c>
-      <c r="AH15">
-        <v>32.249030993194197</v>
-      </c>
-      <c r="AI15">
-        <v>56.014847322044126</v>
       </c>
       <c r="AK15" s="51"/>
       <c r="AL15" s="51"/>
@@ -9267,27 +9537,6 @@
       <c r="X16" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AC16">
-        <v>2.5</v>
-      </c>
-      <c r="AD16">
-        <v>32.449961479175904</v>
-      </c>
-      <c r="AE16">
-        <v>20.518284528683193</v>
-      </c>
-      <c r="AF16">
-        <v>51.623637996561229</v>
-      </c>
-      <c r="AG16">
-        <v>20</v>
-      </c>
-      <c r="AH16">
-        <v>53.600373133029585</v>
-      </c>
-      <c r="AI16">
-        <v>35.638451427489983</v>
-      </c>
       <c r="AK16" s="51"/>
       <c r="AL16" s="51"/>
       <c r="AM16" s="51"/>
@@ -9297,35 +9546,43 @@
       <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="8">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-21</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>28</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="16"/>
       <c r="M17" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N17" s="44">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O17" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.7723478758647238</v>
       </c>
       <c r="P17" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R17" s="59">
         <f t="shared" si="9"/>
@@ -9341,43 +9598,26 @@
       </c>
       <c r="U17" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>2.5</v>
-      </c>
-      <c r="AD17">
-        <v>91.021975368588869</v>
-      </c>
-      <c r="AE17">
-        <v>17.888543819998318</v>
-      </c>
-      <c r="AF17">
-        <v>98.005101908012932</v>
-      </c>
-      <c r="AG17">
-        <v>21.095023109728988</v>
-      </c>
-      <c r="AH17">
-        <v>28.301943396169811</v>
-      </c>
-      <c r="AI17">
-        <v>51.262517520499784</v>
+        <v>12.6</v>
       </c>
       <c r="AJ17">
         <v>2.5</v>
       </c>
       <c r="AK17" s="51">
-        <v>25.495097567963924</v>
+        <f>P15</f>
+        <v>32.649655434629018</v>
       </c>
       <c r="AL17" s="51">
-        <v>32.449961479175904</v>
+        <f>P16</f>
+        <v>17.804493814764857</v>
       </c>
       <c r="AM17" s="51">
-        <v>91.021975368588869</v>
+        <f>P17</f>
+        <v>28</v>
       </c>
       <c r="AN17" s="51">
-        <v>53.366656256505337</v>
+        <f>P18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9430,60 +9670,43 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC18">
-        <v>2.5</v>
-      </c>
-      <c r="AD18">
-        <v>53.366656256505337</v>
-      </c>
-      <c r="AE18">
-        <v>17.888543819998318</v>
-      </c>
-      <c r="AF18">
-        <v>17.720045146669349</v>
-      </c>
-      <c r="AG18">
-        <v>57.55866572463264</v>
-      </c>
-      <c r="AH18">
-        <v>21.840329667841555</v>
-      </c>
-      <c r="AI18">
-        <v>33.674848123129443</v>
-      </c>
       <c r="AJ18">
         <v>2.5</v>
       </c>
       <c r="AK18" s="51">
-        <v>95.036834964133774</v>
+        <f>Q15</f>
+        <v>30.413812651491099</v>
       </c>
       <c r="AL18" s="51">
-        <v>20.518284528683193</v>
+        <f>Q16</f>
+        <v>24.758836806279895</v>
       </c>
       <c r="AM18" s="51">
-        <v>17.888543819998318</v>
+        <f>Q17</f>
+        <v>35</v>
       </c>
       <c r="AN18" s="51">
-        <v>17.888543819998318</v>
+        <f>Q18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="70"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -9494,16 +9717,20 @@
         <v>2.5</v>
       </c>
       <c r="AK19" s="51">
-        <v>35.114099732158877</v>
+        <f>R15</f>
+        <v>18.439088914585774</v>
       </c>
       <c r="AL19" s="51">
-        <v>51.623637996561229</v>
+        <f>R16</f>
+        <v>9.8994949366116654</v>
       </c>
       <c r="AM19" s="51">
-        <v>98.005101908012932</v>
+        <f>R17</f>
+        <v>0</v>
       </c>
       <c r="AN19" s="51">
-        <v>17.720045146669349</v>
+        <f>R18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
@@ -9579,41 +9806,24 @@
       <c r="X20" s="62">
         <v>4.3055555555555562E-2</v>
       </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>89</v>
-      </c>
-      <c r="AE20">
-        <v>56.727418414731339</v>
-      </c>
-      <c r="AF20">
-        <v>88.141930997681229</v>
-      </c>
-      <c r="AG20">
-        <v>30.413812651491099</v>
-      </c>
-      <c r="AH20">
-        <v>117.92370414806346</v>
-      </c>
-      <c r="AI20">
-        <v>76.441373242393425</v>
-      </c>
       <c r="AJ20">
         <v>2.5</v>
       </c>
       <c r="AK20" s="51">
-        <v>92.17917335276988</v>
+        <f>S15</f>
+        <v>30.463092423455635</v>
       </c>
       <c r="AL20" s="51">
-        <v>20</v>
+        <f>S16</f>
+        <v>38.897300677553446</v>
       </c>
       <c r="AM20" s="51">
-        <v>21.095023109728988</v>
+        <f>S17</f>
+        <v>0</v>
       </c>
       <c r="AN20" s="51">
-        <v>57.55866572463264</v>
+        <f>S18</f>
+        <v>0</v>
       </c>
       <c r="AP20" s="51"/>
     </row>
@@ -9690,41 +9900,24 @@
       <c r="X21" s="62">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>55.154328932550705</v>
-      </c>
-      <c r="AE21">
-        <v>53.235326616824658</v>
-      </c>
-      <c r="AF21">
-        <v>12.165525060596439</v>
-      </c>
-      <c r="AG21">
-        <v>44.011362169330773</v>
-      </c>
-      <c r="AH21">
-        <v>53.450912059571067</v>
-      </c>
-      <c r="AI21">
-        <v>43.603490967774732</v>
-      </c>
       <c r="AJ21">
         <v>2.5</v>
       </c>
       <c r="AK21" s="51">
-        <v>32.249030993194197</v>
+        <f>U15</f>
+        <v>25.931491087423133</v>
       </c>
       <c r="AL21" s="51">
-        <v>53.600373133029585</v>
+        <f>T16</f>
+        <v>8</v>
       </c>
       <c r="AM21" s="51">
-        <v>28.301943396169811</v>
+        <f>T17</f>
+        <v>0</v>
       </c>
       <c r="AN21" s="51">
-        <v>21.840329667841555</v>
+        <f>T18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
@@ -9777,27 +9970,6 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>100.00499987500625</v>
-      </c>
-      <c r="AE22">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="AF22">
-        <v>114.35471131527551</v>
-      </c>
-      <c r="AG22">
-        <v>31.32091952673165</v>
-      </c>
-      <c r="AH22">
-        <v>79.429213769242352</v>
-      </c>
-      <c r="AI22">
-        <v>66.584018832432477</v>
-      </c>
       <c r="AK22" s="51"/>
       <c r="AL22" s="51"/>
       <c r="AM22" s="51"/>
@@ -9853,49 +10025,28 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>32.202484376209235</v>
-      </c>
-      <c r="AE23">
-        <v>59.169248769948062</v>
-      </c>
-      <c r="AF23">
-        <v>22.561028345356956</v>
-      </c>
-      <c r="AG23">
-        <v>34.928498393145958</v>
-      </c>
-      <c r="AH23">
-        <v>23.086792761230392</v>
-      </c>
-      <c r="AI23">
-        <v>34.389610529178121</v>
-      </c>
       <c r="AK23" s="51"/>
       <c r="AL23" s="51"/>
       <c r="AM23" s="51"/>
       <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="70"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -9906,16 +10057,20 @@
         <v>1</v>
       </c>
       <c r="AK24" s="51">
-        <v>89</v>
+        <f>P20</f>
+        <v>12.529964086141668</v>
       </c>
       <c r="AL24" s="51">
-        <v>55.154328932550705</v>
+        <f>P21</f>
+        <v>18.027756377319946</v>
       </c>
       <c r="AM24" s="51">
-        <v>100.00499987500625</v>
+        <f>P22</f>
+        <v>0</v>
       </c>
       <c r="AN24" s="51">
-        <v>32.202484376209235</v>
+        <f>P23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
@@ -9991,41 +10146,24 @@
       <c r="W25" s="62">
         <v>6.8749999999999992E-2</v>
       </c>
-      <c r="AC25">
-        <v>0.5</v>
-      </c>
-      <c r="AD25">
-        <v>77.317527120310828</v>
-      </c>
-      <c r="AE25">
-        <v>103.07764064044152</v>
-      </c>
-      <c r="AF25">
-        <v>68.87670143089025</v>
-      </c>
-      <c r="AG25">
-        <v>92.617492948146676</v>
-      </c>
-      <c r="AH25">
-        <v>90.801982357215081</v>
-      </c>
-      <c r="AI25">
-        <v>86.538268899400876</v>
-      </c>
       <c r="AJ25">
         <v>1</v>
       </c>
       <c r="AK25" s="51">
-        <v>56.727418414731339</v>
+        <f>Q20</f>
+        <v>13</v>
       </c>
       <c r="AL25" s="51">
-        <v>53.235326616824658</v>
+        <f>Q21</f>
+        <v>17.720045146669349</v>
       </c>
       <c r="AM25" s="51">
-        <v>7.810249675906654</v>
+        <f>Q22</f>
+        <v>0</v>
       </c>
       <c r="AN25" s="51">
-        <v>59.169248769948062</v>
+        <f>Q23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.25">
@@ -10101,41 +10239,24 @@
       <c r="X26" s="62">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="AC26">
-        <v>0.5</v>
-      </c>
-      <c r="AD26">
-        <v>121.16517651536682</v>
-      </c>
-      <c r="AE26">
-        <v>79.309520235593411</v>
-      </c>
-      <c r="AF26">
-        <v>112.60550608207397</v>
-      </c>
-      <c r="AG26">
-        <v>26.076809620810597</v>
-      </c>
-      <c r="AH26">
-        <v>146.57762448614045</v>
-      </c>
-      <c r="AI26">
-        <v>97.146927387997053</v>
-      </c>
       <c r="AJ26">
         <v>1</v>
       </c>
       <c r="AK26" s="51">
-        <v>88.141930997681229</v>
+        <f>R20</f>
+        <v>34.481879299133332</v>
       </c>
       <c r="AL26" s="51">
-        <v>12.165525060596439</v>
+        <f>R21</f>
+        <v>2.2360679774997898</v>
       </c>
       <c r="AM26" s="51">
-        <v>114.35471131527551</v>
+        <f>R22</f>
+        <v>0</v>
       </c>
       <c r="AN26" s="51">
-        <v>22.561028345356956</v>
+        <f>R23</f>
+        <v>0</v>
       </c>
       <c r="AP26" s="51"/>
     </row>
@@ -10189,41 +10310,24 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC27">
-        <v>0.5</v>
-      </c>
-      <c r="AD27">
-        <v>100.56838469419701</v>
-      </c>
-      <c r="AE27">
-        <v>104.35037134576953</v>
-      </c>
-      <c r="AF27">
-        <v>154.25303886795876</v>
-      </c>
-      <c r="AG27">
-        <v>87.664131775772461</v>
-      </c>
-      <c r="AH27">
-        <v>121.49485585818027</v>
-      </c>
-      <c r="AI27">
-        <v>113.66615650837559</v>
-      </c>
       <c r="AJ27">
         <v>1</v>
       </c>
       <c r="AK27" s="51">
-        <v>30.413812651491099</v>
+        <f>S20</f>
+        <v>38.013155617496423</v>
       </c>
       <c r="AL27" s="51">
-        <v>44.011362169330773</v>
+        <f>S21</f>
+        <v>1</v>
       </c>
       <c r="AM27" s="51">
-        <v>31.32091952673165</v>
+        <f>S22</f>
+        <v>0</v>
       </c>
       <c r="AN27" s="51">
-        <v>34.928498393145958</v>
+        <f>S23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10276,60 +10380,43 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC28">
-        <v>0.5</v>
-      </c>
-      <c r="AD28">
-        <v>15.811388300841896</v>
-      </c>
-      <c r="AE28">
-        <v>56.435804238089851</v>
-      </c>
-      <c r="AF28">
-        <v>40.496913462633174</v>
-      </c>
-      <c r="AG28">
-        <v>94.069123520951337</v>
-      </c>
-      <c r="AH28">
-        <v>40.8166632639171</v>
-      </c>
-      <c r="AI28">
-        <v>49.52597855728667</v>
-      </c>
       <c r="AJ28">
         <v>1</v>
       </c>
       <c r="AK28" s="51">
-        <v>117.92370414806346</v>
+        <f>T20</f>
+        <v>16.124515496597098</v>
       </c>
       <c r="AL28" s="51">
-        <v>53.450912059571067</v>
+        <f>T21</f>
+        <v>6</v>
       </c>
       <c r="AM28" s="51">
-        <v>79.429213769242352</v>
+        <f>T22</f>
+        <v>0</v>
       </c>
       <c r="AN28" s="51">
-        <v>23.086792761230392</v>
+        <f>T23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="70"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10414,27 +10501,6 @@
       <c r="W30" s="62">
         <v>0.11875000000000001</v>
       </c>
-      <c r="AC30">
-        <v>0.25</v>
-      </c>
-      <c r="AD30">
-        <v>20.615528128088304</v>
-      </c>
-      <c r="AE30">
-        <v>122.80065146407001</v>
-      </c>
-      <c r="AF30">
-        <v>86.092973000123536</v>
-      </c>
-      <c r="AG30">
-        <v>127.81627439414747</v>
-      </c>
-      <c r="AH30">
-        <v>13.416407864998739</v>
-      </c>
-      <c r="AI30">
-        <v>74.148366970285608</v>
-      </c>
       <c r="AK30" s="51"/>
       <c r="AL30" s="51"/>
       <c r="AM30" s="51"/>
@@ -10444,87 +10510,90 @@
       <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="16"/>
+      <c r="C31" s="8">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15</v>
+      </c>
+      <c r="G31" s="10">
+        <v>7</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L31" s="16">
+        <v>-6</v>
+      </c>
       <c r="M31" s="7">
         <f t="shared" ref="M31:M33" si="26">SUM(C31:G31)/5</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N31" s="44">
         <f t="shared" ref="N31:N33" si="27">SUM(H31:L31)/5</f>
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="O31" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.962182495454165</v>
       </c>
       <c r="P31" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12.041594578792296</v>
       </c>
       <c r="Q31" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>46.389654018972806</v>
       </c>
       <c r="R31" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10.295630140987001</v>
       </c>
       <c r="S31" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.297058540778355</v>
       </c>
       <c r="T31" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.2195444572928871</v>
       </c>
       <c r="U31" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0.25</v>
-      </c>
-      <c r="AD31">
-        <v>26.305892875931811</v>
-      </c>
-      <c r="AE31">
-        <v>92.282175960474618</v>
-      </c>
-      <c r="AF31">
-        <v>127.47156545677157</v>
-      </c>
-      <c r="AG31">
-        <v>74.249579123386283</v>
-      </c>
-      <c r="AH31">
-        <v>172.75416058665562</v>
-      </c>
-      <c r="AI31">
-        <v>98.612674800643987</v>
+        <v>18.64869634736467</v>
       </c>
       <c r="AJ31">
         <v>0.5</v>
       </c>
       <c r="AK31" s="51">
-        <v>77.317527120310828</v>
+        <f>P25</f>
+        <v>20.124611797498108</v>
       </c>
       <c r="AL31" s="51">
-        <v>121.16517651536682</v>
+        <f>P26</f>
+        <v>14.422205101855956</v>
       </c>
       <c r="AM31" s="51">
-        <v>100.56838469419701</v>
+        <f>P27</f>
+        <v>0</v>
       </c>
       <c r="AN31" s="51">
-        <v>15.811388300841896</v>
+        <f>P28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.25">
@@ -10577,41 +10646,24 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC32">
-        <v>0.25</v>
-      </c>
-      <c r="AD32">
-        <v>61.814237842102365</v>
-      </c>
-      <c r="AE32">
-        <v>111.66467659918243</v>
-      </c>
-      <c r="AF32">
-        <v>37</v>
-      </c>
-      <c r="AG32">
-        <v>68.264192663504048</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>55.748621420957761</v>
-      </c>
       <c r="AJ32">
         <v>0.5</v>
       </c>
       <c r="AK32" s="51">
-        <v>103.07764064044152</v>
+        <f>Q25</f>
+        <v>7</v>
       </c>
       <c r="AL32" s="51">
-        <v>79.309520235593411</v>
+        <f>Q26</f>
+        <v>4</v>
       </c>
       <c r="AM32" s="51">
-        <v>104.35037134576953</v>
+        <f>Q27</f>
+        <v>0</v>
       </c>
       <c r="AN32" s="51">
-        <v>56.435804238089851</v>
+        <f>Q28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10664,75 +10716,62 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC33">
-        <v>0.25</v>
-      </c>
-      <c r="AD33">
-        <v>94.175368329515976</v>
-      </c>
-      <c r="AE33">
-        <v>64.845971347493901</v>
-      </c>
-      <c r="AF33">
-        <v>84.219950130595535</v>
-      </c>
-      <c r="AG33">
-        <v>61.522353661088097</v>
-      </c>
-      <c r="AH33">
-        <v>75.504966724050675</v>
-      </c>
-      <c r="AI33">
-        <v>76.053722038548841</v>
-      </c>
       <c r="AJ33">
         <v>0.5</v>
       </c>
       <c r="AK33" s="51">
-        <v>68.87670143089025</v>
+        <f>R25</f>
+        <v>10.04987562112089</v>
       </c>
       <c r="AL33" s="51">
-        <v>112.60550608207397</v>
+        <f>R26</f>
+        <v>8</v>
       </c>
       <c r="AM33" s="51">
-        <v>154.25303886795876</v>
+        <f>R27</f>
+        <v>0</v>
       </c>
       <c r="AN33" s="51">
-        <v>40.496913462633174</v>
+        <f>R28</f>
+        <v>0</v>
       </c>
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="67"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="81"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
       <c r="AK34" s="51">
-        <v>92.617492948146676</v>
+        <f>S25</f>
+        <v>15</v>
       </c>
       <c r="AL34" s="51">
-        <v>26.076809620810597</v>
+        <f>S26</f>
+        <v>13.45362404707371</v>
       </c>
       <c r="AM34" s="51">
-        <v>87.664131775772461</v>
+        <f>S27</f>
+        <v>0</v>
       </c>
       <c r="AN34" s="51">
-        <v>94.069123520951337</v>
+        <f>S28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.25">
@@ -10756,16 +10795,20 @@
         <v>0.5</v>
       </c>
       <c r="AK35" s="51">
-        <v>90.801982357215081</v>
+        <f>T25</f>
+        <v>27.202941017470888</v>
       </c>
       <c r="AL35" s="51">
-        <v>146.57762448614045</v>
+        <f>T26</f>
+        <v>11</v>
       </c>
       <c r="AM35" s="51">
-        <v>121.49485585818027</v>
+        <f>T27</f>
+        <v>0</v>
       </c>
       <c r="AN35" s="51">
-        <v>40.8166632639171</v>
+        <f>T28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.25">
@@ -10833,16 +10876,20 @@
         <v>0.25</v>
       </c>
       <c r="AK38" s="51">
-        <v>20.615528128088304</v>
+        <f>P30</f>
+        <v>16.124515496597098</v>
       </c>
       <c r="AL38" s="51">
-        <v>26.305892875931811</v>
+        <f>P31</f>
+        <v>12.041594578792296</v>
       </c>
       <c r="AM38" s="51">
-        <v>61.814237842102365</v>
+        <f>P32</f>
+        <v>0</v>
       </c>
       <c r="AN38" s="51">
-        <v>94.175368329515976</v>
+        <f>P33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.25">
@@ -10850,16 +10897,20 @@
         <v>0.25</v>
       </c>
       <c r="AK39" s="51">
-        <v>122.80065146407001</v>
+        <f>Q30</f>
+        <v>22.472205054244231</v>
       </c>
       <c r="AL39" s="51">
-        <v>92.282175960474618</v>
+        <f>Q31</f>
+        <v>46.389654018972806</v>
       </c>
       <c r="AM39" s="51">
-        <v>111.66467659918243</v>
+        <f>Q32</f>
+        <v>0</v>
       </c>
       <c r="AN39" s="51">
-        <v>64.845971347493901</v>
+        <f>Q33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.25">
@@ -10867,16 +10918,20 @@
         <v>0.25</v>
       </c>
       <c r="AK40" s="51">
-        <v>86.092973000123536</v>
+        <f>R30</f>
+        <v>16.15549442140351</v>
       </c>
       <c r="AL40" s="51">
-        <v>127.47156545677157</v>
+        <f>R31</f>
+        <v>10.295630140987001</v>
       </c>
       <c r="AM40" s="51">
-        <v>37</v>
+        <f>R32</f>
+        <v>0</v>
       </c>
       <c r="AN40" s="51">
-        <v>84.219950130595535</v>
+        <f>R33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:42" x14ac:dyDescent="0.25">
@@ -10884,16 +10939,20 @@
         <v>0.25</v>
       </c>
       <c r="AK41" s="51">
-        <v>127.81627439414747</v>
+        <f>S30</f>
+        <v>15.556349186104045</v>
       </c>
       <c r="AL41" s="51">
-        <v>74.249579123386283</v>
+        <f>S31</f>
+        <v>15.297058540778355</v>
       </c>
       <c r="AM41" s="51">
-        <v>68.264192663504048</v>
+        <f>S32</f>
+        <v>0</v>
       </c>
       <c r="AN41" s="51">
-        <v>61.522353661088097</v>
+        <f>S33</f>
+        <v>0</v>
       </c>
       <c r="AP41" s="51"/>
     </row>
@@ -10902,16 +10961,20 @@
         <v>0.25</v>
       </c>
       <c r="AK42" s="51">
-        <v>13.416407864998739</v>
+        <f>T30</f>
+        <v>11.401754250991379</v>
       </c>
       <c r="AL42" s="51">
-        <v>172.75416058665562</v>
+        <f>T31</f>
+        <v>9.2195444572928871</v>
       </c>
       <c r="AM42" s="51">
+        <f>T32</f>
         <v>0</v>
       </c>
       <c r="AN42" s="51">
-        <v>75.504966724050675</v>
+        <f>U33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.25">
@@ -10922,14 +10985,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -10943,6 +10998,14 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -874,42 +874,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,6 +921,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,6 +1270,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1279,6 +1294,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1327,6 +1357,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1336,6 +1381,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1555,10 +1615,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,10 +1639,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,6 +1703,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1634,6 +1727,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1856,6 +1964,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1865,6 +1988,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1915,6 +2053,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1924,6 +2074,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2870,13 +3032,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>4.6992699735199119</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.429859437184227</c:v>
+                    <c:v>11.877020662669361</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>10.507771514005094</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -2894,13 +3056,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>4.6992699735199119</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>17.429859437184227</c:v>
+                    <c:v>11.877020662669361</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>10.507771514005094</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -2943,13 +3105,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.50136864753415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.6</c:v>
+                  <c:v>22.889934559601084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22.037908027931564</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3123,13 +3285,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>15.48931083010269</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>6.8987188293049284</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>10.645137729461677</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -3147,13 +3309,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>15.48931083010269</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>6.8987188293049284</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>10.645137729461677</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
@@ -3196,13 +3358,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>36.145054986910324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.785459786738574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.646353092802869</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3568,13 +3730,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20.840345486579633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7723478758647238</c:v>
+                  <c:v>22.24230203913255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>21.023796041628639</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3656,13 +3818,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.223855552735841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.5510233305727805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.6209048249009221</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5405,49 +5567,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>34.985711369071801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>24.041630560342615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30.479501308256342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>24.413111231467404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>22.847319317591726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36.76955262170047</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>26.419689627245813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>9.8994949366116654</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>18.027756377319946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>28.861739379323623</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>36.400549446402593</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -5850,46 +6012,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>34.481879299133332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35.846896657869841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>55.226805085936306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>42.5205832509386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12.649110640673518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15.524174696260024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.4031242374328485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.0990195135927845</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>15.132745950421556</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -6177,7 +6339,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6347,7 +6508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6382,7 +6542,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -6396,7 +6555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8466,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,48 +8648,48 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="O2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="66" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="65" t="s">
+      <c r="V2" s="81" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8562,51 +8720,51 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="71" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="71" t="s">
+      <c r="S3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="74" t="s">
+      <c r="T3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="65"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="81"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -8634,13 +8792,13 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="65"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="81"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -8668,13 +8826,13 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="65"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="81"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -8702,13 +8860,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="65"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="81"/>
     </row>
     <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -8736,13 +8894,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="65"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="81"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="63" t="s">
         <v>26</v>
@@ -8757,29 +8915,29 @@
       <c r="AS8" s="61"/>
     </row>
     <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="65"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="81"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -8927,11 +9085,11 @@
       </c>
       <c r="AM10" s="51">
         <f>P12</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AN10" s="51">
         <f>P13</f>
-        <v>0</v>
+        <v>34.481879299133332</v>
       </c>
       <c r="AP10">
         <v>5</v>
@@ -8946,11 +9104,11 @@
       </c>
       <c r="AS10" s="51">
         <f>AVERAGE(AM10:AM14)</f>
-        <v>0</v>
+        <v>30.50136864753415</v>
       </c>
       <c r="AT10" s="51">
         <f>AVERAGE(AN10:AN14)</f>
-        <v>0</v>
+        <v>36.145054986910324</v>
       </c>
       <c r="AV10" s="51">
         <f>STDEV(AK10:AK14)</f>
@@ -8962,11 +9120,11 @@
       </c>
       <c r="AX10" s="51">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.6992699735199119</v>
       </c>
       <c r="AY10" s="51">
         <f>STDEV(AN10:AN14)</f>
-        <v>0</v>
+        <v>15.48931083010269</v>
       </c>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
@@ -9056,11 +9214,11 @@
       </c>
       <c r="AM11" s="51">
         <f>Q12</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AN11" s="51">
         <f>Q13</f>
-        <v>0</v>
+        <v>35.846896657869841</v>
       </c>
       <c r="AP11" s="51">
         <v>2.5</v>
@@ -9075,11 +9233,11 @@
       </c>
       <c r="AS11" s="51">
         <f>AVERAGE(AM17:AM21)</f>
-        <v>12.6</v>
+        <v>22.889934559601084</v>
       </c>
       <c r="AT11" s="51">
         <f>AVERAGE(AN17:AN21)</f>
-        <v>0</v>
+        <v>10.785459786738574</v>
       </c>
       <c r="AV11" s="51">
         <f>STDEV(AK17:AK21)</f>
@@ -9091,62 +9249,82 @@
       </c>
       <c r="AX11" s="51">
         <f t="shared" si="13"/>
-        <v>17.429859437184227</v>
+        <v>11.877020662669361</v>
       </c>
       <c r="AY11" s="51">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.8987188293049284</v>
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="16"/>
+      <c r="C12" s="8">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-17</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>28</v>
+      </c>
+      <c r="J12" s="8">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>17</v>
+      </c>
+      <c r="L12" s="16">
+        <v>20</v>
+      </c>
       <c r="M12" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(C12:G12)/5</f>
+        <v>-12.6</v>
       </c>
       <c r="N12" s="44">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O12" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.840345486579633</v>
       </c>
       <c r="P12" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SQRT((C12)^2+(H12)^2)</f>
+        <v>28</v>
       </c>
       <c r="Q12" s="59">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>SQRT((D12)^2+(I12)^2)</f>
+        <v>35</v>
       </c>
       <c r="R12" s="59">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SQRT((E12)^2+(J12)^2)</f>
+        <v>34.985711369071801</v>
       </c>
       <c r="S12" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>24.041630560342615</v>
       </c>
       <c r="T12" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30.479501308256342</v>
       </c>
       <c r="U12" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>30.50136864753415</v>
       </c>
       <c r="AJ12">
         <v>5</v>
@@ -9161,11 +9339,11 @@
       </c>
       <c r="AM12" s="51">
         <f>R12</f>
-        <v>0</v>
+        <v>34.985711369071801</v>
       </c>
       <c r="AN12" s="51">
         <f>R13</f>
-        <v>0</v>
+        <v>55.226805085936306</v>
       </c>
       <c r="AP12" s="51">
         <v>1</v>
@@ -9180,11 +9358,11 @@
       </c>
       <c r="AS12" s="51">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>22.037908027931564</v>
       </c>
       <c r="AT12" s="51">
         <f>AVERAGE(AN24:AN28)</f>
-        <v>0</v>
+        <v>10.646353092802869</v>
       </c>
       <c r="AV12" s="51">
         <f>STDEV(AK24:AK28)</f>
@@ -9196,62 +9374,82 @@
       </c>
       <c r="AX12" s="51">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10.507771514005094</v>
       </c>
       <c r="AY12" s="51">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10.645137729461677</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="17"/>
+      <c r="C13" s="9">
+        <v>-33</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-37</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-32</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-12</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3">
+        <v>41</v>
+      </c>
+      <c r="K13" s="3">
+        <v>28</v>
+      </c>
+      <c r="L13" s="17">
+        <v>4</v>
+      </c>
       <c r="M13" s="37">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="N13" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="O13" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35.223855552735841</v>
       </c>
       <c r="P13" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34.481879299133332</v>
       </c>
       <c r="Q13" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>35.846896657869841</v>
       </c>
       <c r="R13" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>55.226805085936306</v>
       </c>
       <c r="S13" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42.5205832509386</v>
       </c>
       <c r="T13" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12.649110640673518</v>
       </c>
       <c r="U13" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>36.145054986910324</v>
       </c>
       <c r="AJ13">
         <v>5</v>
@@ -9266,11 +9464,11 @@
       </c>
       <c r="AM13" s="51">
         <f>S12</f>
-        <v>0</v>
+        <v>24.041630560342615</v>
       </c>
       <c r="AN13" s="51">
         <f>S13</f>
-        <v>0</v>
+        <v>42.5205832509386</v>
       </c>
       <c r="AP13" s="51">
         <v>0.5</v>
@@ -9309,22 +9507,22 @@
       </c>
     </row>
     <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="84"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9344,11 +9542,11 @@
       </c>
       <c r="AM14" s="51">
         <f>T12</f>
-        <v>0</v>
+        <v>30.479501308256342</v>
       </c>
       <c r="AN14" s="51">
         <f>T13</f>
-        <v>0</v>
+        <v>12.649110640673518</v>
       </c>
       <c r="AP14" s="51">
         <v>0.25</v>
@@ -9547,58 +9745,73 @@
         <v>10</v>
       </c>
       <c r="C17" s="8">
-        <v>28</v>
+        <v>-14</v>
       </c>
       <c r="D17" s="1">
         <v>-21</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="1">
+        <v>-26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-23</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-4</v>
+      </c>
       <c r="H17" s="8">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1">
+        <v>13</v>
+      </c>
+      <c r="L17" s="16">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="16"/>
       <c r="M17" s="7">
         <f t="shared" si="20"/>
-        <v>1.4</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="N17" s="44">
         <f t="shared" si="21"/>
-        <v>5.6</v>
+        <v>13.6</v>
       </c>
       <c r="O17" s="49">
         <f t="shared" si="2"/>
-        <v>5.7723478758647238</v>
+        <v>22.24230203913255</v>
       </c>
       <c r="P17" s="58">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f>SQRT((C17)^2+(H17)^2)</f>
+        <v>24.413111231467404</v>
       </c>
       <c r="Q17" s="59">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f>SQRT((D17)^2+(I17)^2)</f>
+        <v>22.847319317591726</v>
       </c>
       <c r="R17" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>36.76955262170047</v>
       </c>
       <c r="S17" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>26.419689627245813</v>
       </c>
       <c r="T17" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U17" s="60">
         <f t="shared" si="12"/>
-        <v>12.6</v>
+        <v>22.889934559601084</v>
+      </c>
+      <c r="X17" s="62">
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="AJ17">
         <v>2.5</v>
@@ -9613,62 +9826,82 @@
       </c>
       <c r="AM17" s="51">
         <f>P17</f>
-        <v>28</v>
+        <v>24.413111231467404</v>
       </c>
       <c r="AN17" s="51">
         <f>P18</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="17"/>
+      <c r="C18" s="9">
+        <v>-20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-9</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-4</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
       <c r="M18" s="37">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="N18" s="45">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="O18" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.5510233305727805</v>
       </c>
       <c r="P18" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15.524174696260024</v>
       </c>
       <c r="R18" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.4031242374328485</v>
       </c>
       <c r="T18" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U18" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10.785459786738574</v>
       </c>
       <c r="AJ18">
         <v>2.5</v>
@@ -9683,30 +9916,30 @@
       </c>
       <c r="AM18" s="51">
         <f>Q17</f>
-        <v>35</v>
+        <v>22.847319317591726</v>
       </c>
       <c r="AN18" s="51">
         <f>Q18</f>
-        <v>0</v>
+        <v>15.524174696260024</v>
       </c>
     </row>
     <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="84"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -9726,11 +9959,11 @@
       </c>
       <c r="AM19" s="51">
         <f>R17</f>
-        <v>0</v>
+        <v>36.76955262170047</v>
       </c>
       <c r="AN19" s="51">
         <f>R18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
@@ -9819,11 +10052,11 @@
       </c>
       <c r="AM20" s="51">
         <f>S17</f>
-        <v>0</v>
+        <v>26.419689627245813</v>
       </c>
       <c r="AN20" s="51">
         <f>S18</f>
-        <v>0</v>
+        <v>6.4031242374328485</v>
       </c>
       <c r="AP20" s="51"/>
     </row>
@@ -9913,62 +10146,82 @@
       </c>
       <c r="AM21" s="51">
         <f>T17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN21" s="51">
         <f>T18</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="16"/>
+      <c r="C22" s="8">
+        <v>-7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-10</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1">
+        <v>35</v>
+      </c>
+      <c r="L22" s="16">
+        <v>8</v>
+      </c>
       <c r="M22" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="N22" s="44">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="O22" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.023796041628639</v>
       </c>
       <c r="P22" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.8994949366116654</v>
       </c>
       <c r="Q22" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18.027756377319946</v>
       </c>
       <c r="R22" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>28.861739379323623</v>
       </c>
       <c r="S22" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>36.400549446402593</v>
       </c>
       <c r="T22" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U22" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>22.037908027931564</v>
       </c>
       <c r="AK22" s="51"/>
       <c r="AL22" s="51"/>
@@ -9979,43 +10232,59 @@
       <c r="B23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="9">
+        <v>-6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2</v>
+      </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3">
+        <v>15</v>
+      </c>
       <c r="L23" s="17"/>
       <c r="M23" s="37">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="N23" s="45">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O23" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.6209048249009221</v>
       </c>
       <c r="P23" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.0990195135927845</v>
       </c>
       <c r="R23" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S23" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.132745950421556</v>
       </c>
       <c r="T23" s="59">
         <f t="shared" si="11"/>
@@ -10023,7 +10292,7 @@
       </c>
       <c r="U23" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10.646353092802869</v>
       </c>
       <c r="AK23" s="51"/>
       <c r="AL23" s="51"/>
@@ -10031,22 +10300,22 @@
       <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="84"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -10066,11 +10335,11 @@
       </c>
       <c r="AM24" s="51">
         <f>P22</f>
-        <v>0</v>
+        <v>9.8994949366116654</v>
       </c>
       <c r="AN24" s="51">
         <f>P23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
@@ -10159,11 +10428,11 @@
       </c>
       <c r="AM25" s="51">
         <f>Q22</f>
-        <v>0</v>
+        <v>18.027756377319946</v>
       </c>
       <c r="AN25" s="51">
         <f>Q23</f>
-        <v>0</v>
+        <v>5.0990195135927845</v>
       </c>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.25">
@@ -10252,11 +10521,11 @@
       </c>
       <c r="AM26" s="51">
         <f>R22</f>
-        <v>0</v>
+        <v>28.861739379323623</v>
       </c>
       <c r="AN26" s="51">
         <f>R23</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP26" s="51"/>
     </row>
@@ -10323,11 +10592,11 @@
       </c>
       <c r="AM27" s="51">
         <f>S22</f>
-        <v>0</v>
+        <v>36.400549446402593</v>
       </c>
       <c r="AN27" s="51">
         <f>S23</f>
-        <v>0</v>
+        <v>15.132745950421556</v>
       </c>
     </row>
     <row r="28" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10393,7 +10662,7 @@
       </c>
       <c r="AM28" s="51">
         <f>T22</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AN28" s="51">
         <f>T23</f>
@@ -10401,22 +10670,22 @@
       </c>
     </row>
     <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="84"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="72"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10738,22 +11007,22 @@
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="81"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
@@ -10985,6 +11254,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -10998,14 +11275,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blab\PycharmProjects\CopterTests\CopterMoveANDLocalisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryf\Desktop\DroneProject\CopterTest\CopterMoveANDLocalisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257306AC-BA85-47DA-AB78-6767FBC9777A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="10965" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -127,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,6 +876,42 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,45 +960,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,7 +980,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1020,7 +1022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1046,7 +1047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2592,6 +2593,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2601,6 +2617,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2649,6 +2680,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2658,6 +2692,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2712,7 +2749,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2738,7 +2774,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2776,7 +2812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156025408"/>
@@ -2816,7 +2852,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2842,7 +2877,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2880,7 +2915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156024832"/>
@@ -2897,7 +2932,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2923,13 +2957,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2937,6 +2970,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2960,7 +2994,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2974,7 +3008,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3044,7 +3078,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>7.5081813750025814</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3068,7 +3102,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>7.5081813750025814</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3117,7 +3151,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32.956058167688255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,7 +3261,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3297,7 +3331,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>14.575321608801637</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3321,7 +3355,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>14.575321608801637</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3370,7 +3404,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.0677134307063731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,7 +3514,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3742,7 +3776,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>29.154759474226502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,7 +3864,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.7230945255886443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,7 +3937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156027712"/>
@@ -3962,7 +3996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186310656"/>
@@ -3979,7 +4013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4005,13 +4038,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4019,6 +4051,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4042,7 +4075,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4056,7 +4089,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4083,7 +4116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4338,7 +4370,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4375,7 +4406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156030592"/>
@@ -4419,7 +4450,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4456,7 +4486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156030016"/>
@@ -4473,12 +4503,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4486,6 +4514,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4509,7 +4538,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4523,7 +4552,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4535,7 +4564,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4792,7 +4820,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4829,7 +4856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186614912"/>
@@ -4873,7 +4900,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4910,7 +4936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186614336"/>
@@ -4927,12 +4953,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4940,6 +4964,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4963,7 +4988,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4977,7 +5002,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5276,7 +5301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186616640"/>
@@ -5356,7 +5381,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186616064"/>
@@ -5377,7 +5402,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5385,6 +5409,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5408,7 +5433,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5422,7 +5447,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5627,19 +5652,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>38.948684188300895</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>37.483329627982627</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>24.515301344262525</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>38.832975677895199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,7 +5746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186618944"/>
@@ -5801,7 +5826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186618368"/>
@@ -5822,7 +5847,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5830,6 +5854,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5853,7 +5878,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5867,7 +5892,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6072,7 +6097,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>33.61547262794322</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -6084,7 +6109,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>6.7230945255886443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6166,7 +6191,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186621248"/>
@@ -6246,7 +6271,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186620672"/>
@@ -6267,7 +6292,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6275,6 +6299,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6298,7 +6323,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6312,7 +6337,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6572,7 +6597,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7954,7 +7979,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAD711-5CD7-4092-9D77-2BCD56A91F99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7990,7 +8015,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF29F49-BF6C-4F66-BAC3-EC7DEFE27457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8026,7 +8051,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8062,7 +8087,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8100,7 +8125,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,7 +8163,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8176,7 +8201,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8211,7 +8236,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8241,7 +8272,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8273,7 +8310,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8305,7 +8348,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8621,75 +8670,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AY43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+    <row r="1" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:51" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="82" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="81" t="s">
+      <c r="V2" s="65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78"/>
+    <row r="3" spans="2:51" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="90"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8720,53 +8769,53 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="87" t="s">
+      <c r="Q3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="81"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="65"/>
     </row>
-    <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+    <row r="4" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="65"/>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
@@ -8792,15 +8841,15 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="81"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="65"/>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
@@ -8826,15 +8875,15 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="81"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="65"/>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
@@ -8860,15 +8909,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="81"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="65"/>
     </row>
-    <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
@@ -8894,13 +8943,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="81"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="65"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="63" t="s">
         <v>26</v>
@@ -8914,30 +8963,30 @@
       </c>
       <c r="AS8" s="61"/>
     </row>
-    <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70" t="s">
+    <row r="9" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="65"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -8996,7 +9045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -9127,7 +9176,7 @@
         <v>15.48931083010269</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
@@ -9256,7 +9305,7 @@
         <v>6.8987188293049284</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
@@ -9381,7 +9430,7 @@
         <v>10.645137729461677</v>
       </c>
     </row>
-    <row r="13" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
@@ -9506,23 +9555,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="72"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9561,11 +9610,11 @@
       </c>
       <c r="AS14" s="51">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>32.956058167688255</v>
       </c>
       <c r="AT14" s="51">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8.0677134307063731</v>
       </c>
       <c r="AV14" s="51">
         <f>STDEV(AK38:AK42)</f>
@@ -9577,14 +9626,14 @@
       </c>
       <c r="AX14" s="51">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7.5081813750025814</v>
       </c>
       <c r="AY14" s="51">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14.575321608801637</v>
       </c>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
@@ -9662,7 +9711,7 @@
       <c r="AM15" s="51"/>
       <c r="AN15" s="51"/>
     </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9740,7 +9789,7 @@
       <c r="AM16" s="51"/>
       <c r="AN16" s="51"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
@@ -9833,7 +9882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
@@ -9923,23 +9972,23 @@
         <v>15.524174696260024</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="70" t="s">
+    <row r="19" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="72"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -9966,7 +10015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
@@ -10060,7 +10109,7 @@
       </c>
       <c r="AP20" s="51"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
         <v>9</v>
       </c>
@@ -10153,7 +10202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
@@ -10228,7 +10277,7 @@
       <c r="AM22" s="51"/>
       <c r="AN22" s="51"/>
     </row>
-    <row r="23" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
         <v>11</v>
       </c>
@@ -10299,23 +10348,23 @@
       <c r="AM23" s="51"/>
       <c r="AN23" s="51"/>
     </row>
-    <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70" t="s">
+    <row r="24" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="72"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -10342,7 +10391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
@@ -10435,7 +10484,7 @@
         <v>5.0990195135927845</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
@@ -10529,7 +10578,7 @@
       </c>
       <c r="AP26" s="51"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
@@ -10599,7 +10648,7 @@
         <v>15.132745950421556</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
@@ -10669,23 +10718,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="72"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10697,7 +10746,7 @@
       <c r="AM29" s="51"/>
       <c r="AN29" s="51"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
@@ -10775,7 +10824,7 @@
       <c r="AM30" s="51"/>
       <c r="AN30" s="51"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
@@ -10865,55 +10914,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="16"/>
+      <c r="C32" s="8">
+        <v>-29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-25</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>-32</v>
+      </c>
+      <c r="H32" s="8">
+        <v>26</v>
+      </c>
+      <c r="I32" s="1">
+        <v>27</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>24</v>
+      </c>
+      <c r="L32" s="16">
+        <v>22</v>
+      </c>
       <c r="M32" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-21.4</v>
       </c>
       <c r="N32" s="44">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="O32" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29.154759474226502</v>
       </c>
       <c r="P32" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>38.948684188300895</v>
       </c>
       <c r="Q32" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>37.483329627982627</v>
       </c>
       <c r="R32" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S32" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>24.515301344262525</v>
       </c>
       <c r="T32" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>38.832975677895199</v>
       </c>
       <c r="U32" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32.956058167688255</v>
       </c>
       <c r="AJ32">
         <v>0.5</v>
@@ -10935,35 +11004,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9">
+        <v>-13</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9">
+        <v>31</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="17"/>
       <c r="M33" s="37">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="N33" s="45">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O33" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.7230945255886443</v>
       </c>
       <c r="P33" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.61547262794322</v>
       </c>
       <c r="Q33" s="59">
         <f t="shared" si="8"/>
@@ -10983,7 +11056,7 @@
       </c>
       <c r="U33" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.7230945255886443</v>
       </c>
       <c r="AJ33">
         <v>0.5</v>
@@ -11006,23 +11079,23 @@
       </c>
       <c r="AP33" s="51"/>
     </row>
-    <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="67" t="s">
+    <row r="34" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="81"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
@@ -11043,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
@@ -11080,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>9</v>
       </c>
@@ -11102,7 +11175,7 @@
       <c r="AM36" s="51"/>
       <c r="AN36" s="51"/>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B37" s="19" t="s">
         <v>10</v>
       </c>
@@ -11124,7 +11197,7 @@
       <c r="AM37" s="51"/>
       <c r="AN37" s="51"/>
     </row>
-    <row r="38" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="30" t="s">
         <v>11</v>
       </c>
@@ -11154,14 +11227,14 @@
       </c>
       <c r="AM38" s="51">
         <f>P32</f>
-        <v>0</v>
+        <v>38.948684188300895</v>
       </c>
       <c r="AN38" s="51">
         <f>P33</f>
-        <v>0</v>
+        <v>33.61547262794322</v>
       </c>
     </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AJ39">
         <v>0.25</v>
       </c>
@@ -11175,14 +11248,14 @@
       </c>
       <c r="AM39" s="51">
         <f>Q32</f>
-        <v>0</v>
+        <v>37.483329627982627</v>
       </c>
       <c r="AN39" s="51">
         <f>Q33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AJ40">
         <v>0.25</v>
       </c>
@@ -11196,14 +11269,14 @@
       </c>
       <c r="AM40" s="51">
         <f>R32</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AN40" s="51">
         <f>R33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AJ41">
         <v>0.25</v>
       </c>
@@ -11217,7 +11290,7 @@
       </c>
       <c r="AM41" s="51">
         <f>S32</f>
-        <v>0</v>
+        <v>24.515301344262525</v>
       </c>
       <c r="AN41" s="51">
         <f>S33</f>
@@ -11225,7 +11298,7 @@
       </c>
       <c r="AP41" s="51"/>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AJ42">
         <v>0.25</v>
       </c>
@@ -11239,14 +11312,14 @@
       </c>
       <c r="AM42" s="51">
         <f>T32</f>
-        <v>0</v>
+        <v>38.832975677895199</v>
       </c>
       <c r="AN42" s="51">
         <f>U33</f>
-        <v>0</v>
+        <v>6.7230945255886443</v>
       </c>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.3">
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
       <c r="AG43" s="51"/>
@@ -11254,14 +11327,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -11275,6 +11340,14 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryf\Desktop\DroneProject\CopterTest\CopterMoveANDLocalisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257306AC-BA85-47DA-AB78-6767FBC9777A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F63090-AE2B-40BE-B153-889326A722BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,42 +876,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,6 +923,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,6 +2307,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2316,6 +2328,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2366,6 +2390,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2375,6 +2411,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2683,6 +2731,12 @@
                 <c:pt idx="0">
                   <c:v>-13</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2694,6 +2748,12 @@
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,7 +3135,7 @@
                     <c:v>10.507771514005094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>17.191003450568434</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>7.5081813750025814</c:v>
@@ -3099,7 +3159,7 @@
                     <c:v>10.507771514005094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>17.191003450568434</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>7.5081813750025814</c:v>
@@ -3148,7 +3208,7 @@
                   <c:v>22.037908027931564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26.472165009496962</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.956058167688255</c:v>
@@ -3328,10 +3388,10 @@
                     <c:v>10.645137729461677</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>9.8235959816246261</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>14.575321608801637</c:v>
+                    <c:v>12.974960035822214</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3352,10 +3412,10 @@
                     <c:v>10.645137729461677</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>9.8235959816246261</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>14.575321608801637</c:v>
+                    <c:v>12.974960035822214</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3401,10 +3461,10 @@
                   <c:v>10.646353092802869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11.865815167608451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0677134307063731</c:v>
+                  <c:v>11.339243684715131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3773,7 +3833,7 @@
                   <c:v>21.023796041628639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25.179356624028344</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>29.154759474226502</c:v>
@@ -3861,10 +3921,10 @@
                   <c:v>8.6209048249009221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.4176014981270129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7230945255886443</c:v>
+                  <c:v>5.3851648071345037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5637,16 +5697,16 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>37.12142238654117</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>45.254833995939045</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>22.671568097509269</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>27.313000567495326</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -6082,16 +6142,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>27.313000567495326</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>11.401754250991379</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>9.4339811320566032</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>11.180339887498949</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -6100,16 +6160,16 @@
                   <c:v>33.61547262794322</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>8.2462112512353212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>5.3851648071345037</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.7230945255886443</c:v>
+                  <c:v>9.4493697372626091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8674,7 +8734,7 @@
   <dimension ref="B1:AY43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8697,48 +8757,48 @@
   <sheetData>
     <row r="1" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="O2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="66" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="65" t="s">
+      <c r="V2" s="81" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8769,51 +8829,51 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="71" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="71" t="s">
+      <c r="S3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="74" t="s">
+      <c r="T3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="65"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="81"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
@@ -8841,13 +8901,13 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="65"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="81"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
@@ -8875,13 +8935,13 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="65"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="81"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
@@ -8909,13 +8969,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="65"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="81"/>
     </row>
     <row r="8" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
@@ -8943,13 +9003,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="65"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="81"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="63" t="s">
         <v>26</v>
@@ -8964,29 +9024,29 @@
       <c r="AS8" s="61"/>
     </row>
     <row r="9" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="65"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="81"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -9227,15 +9287,15 @@
         <v>20.09975124224178</v>
       </c>
       <c r="Q11" s="59">
-        <f t="shared" ref="Q11:Q33" si="8">SQRT((D11)^2+(I11)^2)</f>
+        <f t="shared" ref="Q11:Q32" si="8">SQRT((D11)^2+(I11)^2)</f>
         <v>9.4339811320566032</v>
       </c>
       <c r="R11" s="59">
-        <f t="shared" ref="R11:R33" si="9">SQRT((E11)^2+(J11)^2)</f>
+        <f t="shared" ref="R11:R32" si="9">SQRT((E11)^2+(J11)^2)</f>
         <v>12.041594578792296</v>
       </c>
       <c r="S11" s="59">
-        <f t="shared" ref="S11:S33" si="10">SQRT((F11)^2+(K11)^2)</f>
+        <f t="shared" ref="S11:S32" si="10">SQRT((F11)^2+(K11)^2)</f>
         <v>14</v>
       </c>
       <c r="T11" s="59">
@@ -9532,11 +9592,11 @@
       </c>
       <c r="AS13" s="51">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>26.472165009496962</v>
       </c>
       <c r="AT13" s="51">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>11.865815167608451</v>
       </c>
       <c r="AV13" s="51">
         <f>STDEV(AK31:AK35)</f>
@@ -9548,30 +9608,30 @@
       </c>
       <c r="AX13" s="51">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>17.191003450568434</v>
       </c>
       <c r="AY13" s="51">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9.8235959816246261</v>
       </c>
     </row>
     <row r="14" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="84"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9614,7 +9674,7 @@
       </c>
       <c r="AT14" s="51">
         <f t="shared" si="18"/>
-        <v>8.0677134307063731</v>
+        <v>11.339243684715131</v>
       </c>
       <c r="AV14" s="51">
         <f>STDEV(AK38:AK42)</f>
@@ -9630,7 +9690,7 @@
       </c>
       <c r="AY14" s="51">
         <f t="shared" si="19"/>
-        <v>14.575321608801637</v>
+        <v>12.974960035822214</v>
       </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.3">
@@ -9973,22 +10033,22 @@
       </c>
     </row>
     <row r="19" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="84"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -10349,22 +10409,22 @@
       <c r="AN23" s="51"/>
     </row>
     <row r="24" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="84"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -10519,7 +10579,7 @@
         <v>11</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" ref="M26:M28" si="24">SUM(C26:G26)/5</f>
+        <f t="shared" ref="M26:M27" si="24">SUM(C26:G26)/5</f>
         <v>-5.8</v>
       </c>
       <c r="N26" s="44">
@@ -10582,43 +10642,59 @@
       <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="8">
+        <v>-37</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-32</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-25</v>
+      </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="H27" s="8">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1">
+        <v>11</v>
+      </c>
       <c r="L27" s="16"/>
       <c r="M27" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-21.8</v>
       </c>
       <c r="N27" s="44">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="O27" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.179356624028344</v>
       </c>
       <c r="P27" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>37.12142238654117</v>
       </c>
       <c r="Q27" s="59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>45.254833995939045</v>
       </c>
       <c r="R27" s="59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22.671568097509269</v>
       </c>
       <c r="S27" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>27.313000567495326</v>
       </c>
       <c r="T27" s="59">
         <f t="shared" si="11"/>
@@ -10626,7 +10702,7 @@
       </c>
       <c r="U27" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>26.472165009496962</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -10652,43 +10728,59 @@
       <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="9">
+        <v>-25</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>11</v>
+      </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="H28" s="9">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-11</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-8</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
       <c r="L28" s="17"/>
       <c r="M28" s="37">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>SUM(C28:G28)/5</f>
+        <v>-3.2</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="O28" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.4176014981270129</v>
       </c>
       <c r="P28" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SQRT((C28)^2+(H28)^2)</f>
+        <v>27.313000567495326</v>
       </c>
       <c r="Q28" s="59">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>SQRT((D28)^2+(I28)^2)</f>
+        <v>11.401754250991379</v>
       </c>
       <c r="R28" s="59">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SQRT((E28)^2+(J28)^2)</f>
+        <v>9.4339811320566032</v>
       </c>
       <c r="S28" s="59">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>SQRT((F28)^2+(K28)^2)</f>
+        <v>11.180339887498949</v>
       </c>
       <c r="T28" s="59">
         <f t="shared" si="11"/>
@@ -10696,7 +10788,7 @@
       </c>
       <c r="U28" s="60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>11.865815167608451</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -10719,22 +10811,22 @@
       </c>
     </row>
     <row r="29" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="84"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="72"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10907,11 +10999,11 @@
       </c>
       <c r="AM31" s="51">
         <f>P27</f>
-        <v>0</v>
+        <v>37.12142238654117</v>
       </c>
       <c r="AN31" s="51">
         <f>P28</f>
-        <v>0</v>
+        <v>27.313000567495326</v>
       </c>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.3">
@@ -10997,11 +11089,11 @@
       </c>
       <c r="AM32" s="51">
         <f>Q27</f>
-        <v>0</v>
+        <v>45.254833995939045</v>
       </c>
       <c r="AN32" s="51">
         <f>Q28</f>
-        <v>0</v>
+        <v>11.401754250991379</v>
       </c>
     </row>
     <row r="33" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11011,52 +11103,60 @@
       <c r="C33" s="9">
         <v>-13</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="11"/>
       <c r="H33" s="9">
         <v>31</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="17"/>
       <c r="M33" s="37">
         <f t="shared" si="26"/>
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="N33" s="45">
         <f t="shared" si="27"/>
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="O33" s="57">
         <f t="shared" si="2"/>
-        <v>6.7230945255886443</v>
+        <v>5.3851648071345037</v>
       </c>
       <c r="P33" s="58">
         <f t="shared" si="7"/>
         <v>33.61547262794322</v>
       </c>
       <c r="Q33" s="59">
-        <f t="shared" si="8"/>
+        <f>SQRT((D33)^2+(I33)^2)</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="R33" s="59">
+        <f>SQRT((E33)^2+(J33)^2)</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="S33" s="59">
+        <f>SQRT((F33)^2+(K33)^2)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="59">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="T33" s="59">
-        <f t="shared" si="11"/>
+        <f>SQRT((G33)^2+(L33)^2)</f>
         <v>0</v>
       </c>
       <c r="U33" s="60">
         <f t="shared" si="12"/>
-        <v>6.7230945255886443</v>
+        <v>9.4493697372626091</v>
       </c>
       <c r="AJ33">
         <v>0.5</v>
@@ -11071,31 +11171,31 @@
       </c>
       <c r="AM33" s="51">
         <f>R27</f>
-        <v>0</v>
+        <v>22.671568097509269</v>
       </c>
       <c r="AN33" s="51">
         <f>R28</f>
-        <v>0</v>
+        <v>9.4339811320566032</v>
       </c>
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="81"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
@@ -11109,11 +11209,11 @@
       </c>
       <c r="AM34" s="51">
         <f>S27</f>
-        <v>0</v>
+        <v>27.313000567495326</v>
       </c>
       <c r="AN34" s="51">
         <f>S28</f>
-        <v>0</v>
+        <v>11.180339887498949</v>
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.3">
@@ -11252,7 +11352,7 @@
       </c>
       <c r="AN39" s="51">
         <f>Q33</f>
-        <v>0</v>
+        <v>8.2462112512353212</v>
       </c>
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.3">
@@ -11273,7 +11373,7 @@
       </c>
       <c r="AN40" s="51">
         <f>R33</f>
-        <v>0</v>
+        <v>5.3851648071345037</v>
       </c>
     </row>
     <row r="41" spans="2:42" x14ac:dyDescent="0.3">
@@ -11316,7 +11416,7 @@
       </c>
       <c r="AN42" s="51">
         <f>U33</f>
-        <v>6.7230945255886443</v>
+        <v>9.4493697372626091</v>
       </c>
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.3">
@@ -11327,6 +11427,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -11340,14 +11448,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
+++ b/CopterMoveANDLocalisation/CopterMoveAndLocalisation.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryf\Desktop\DroneProject\CopterTest\CopterMoveANDLocalisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blab\PycharmProjects\CopterTests\CopterMoveANDLocalisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F63090-AE2B-40BE-B153-889326A722BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -129,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -876,6 +875,42 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,45 +959,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,7 +979,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1022,6 +1021,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1047,7 +1047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2319,6 +2319,9 @@
                 <c:pt idx="3">
                   <c:v>-25</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2339,6 +2342,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,6 +2408,9 @@
                 <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2422,6 +2431,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,6 +2821,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2834,7 +2847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2872,7 +2885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156025408"/>
@@ -2912,6 +2925,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2937,7 +2951,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2975,7 +2989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156024832"/>
@@ -2992,6 +3006,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3017,12 +3032,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3030,7 +3046,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3054,7 +3069,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3068,7 +3083,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3135,7 +3150,7 @@
                     <c:v>10.507771514005094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>17.191003450568434</c:v>
+                    <c:v>8.8469006429713239</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>7.5081813750025814</c:v>
@@ -3159,7 +3174,7 @@
                     <c:v>10.507771514005094</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>17.191003450568434</c:v>
+                    <c:v>8.8469006429713239</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>7.5081813750025814</c:v>
@@ -3208,7 +3223,7 @@
                   <c:v>22.037908027931564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.472165009496962</c:v>
+                  <c:v>32.502090382169499</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.956058167688255</c:v>
@@ -3321,7 +3336,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3388,7 +3403,7 @@
                     <c:v>10.645137729461677</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.8235959816246261</c:v>
+                    <c:v>10.770127653537179</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>12.974960035822214</c:v>
@@ -3412,7 +3427,7 @@
                     <c:v>10.645137729461677</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.8235959816246261</c:v>
+                    <c:v>10.770127653537179</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>12.974960035822214</c:v>
@@ -3461,7 +3476,7 @@
                   <c:v>10.646353092802869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.865815167608451</c:v>
+                  <c:v>18.395746254534252</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.339243684715131</c:v>
@@ -3574,7 +3589,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3833,7 +3848,7 @@
                   <c:v>21.023796041628639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.179356624028344</c:v>
+                  <c:v>29.115631540462935</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>29.154759474226502</c:v>
@@ -3921,7 +3936,7 @@
                   <c:v>8.6209048249009221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4176014981270129</c:v>
+                  <c:v>7.7201036262475133</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.3851648071345037</c:v>
@@ -3997,7 +4012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156027712"/>
@@ -4056,7 +4071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186310656"/>
@@ -4073,6 +4088,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4098,12 +4114,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4111,7 +4128,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4135,7 +4151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4149,7 +4165,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4176,6 +4192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4430,6 +4447,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4466,7 +4484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156030592"/>
@@ -4510,6 +4528,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4546,7 +4565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="156030016"/>
@@ -4563,10 +4582,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4574,7 +4595,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4598,7 +4618,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4612,7 +4632,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4916,7 +4936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186614912"/>
@@ -4996,7 +5016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186614336"/>
@@ -5017,6 +5037,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5024,7 +5045,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5048,7 +5068,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5062,7 +5082,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5361,7 +5381,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186616640"/>
@@ -5441,7 +5461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186616064"/>
@@ -5462,6 +5482,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5469,7 +5490,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5493,7 +5513,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5507,7 +5527,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5709,7 +5729,7 @@
                   <c:v>27.313000567495326</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>30.14962686336267</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>38.948684188300895</c:v>
@@ -5806,7 +5826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186618944"/>
@@ -5886,7 +5906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186618368"/>
@@ -5907,6 +5927,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5914,7 +5935,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5938,7 +5958,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5952,7 +5972,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6154,7 +6174,7 @@
                   <c:v>11.180339887498949</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>32.649655434629018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>33.61547262794322</c:v>
@@ -6251,7 +6271,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186621248"/>
@@ -6331,7 +6351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186620672"/>
@@ -6352,6 +6372,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6359,7 +6380,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6383,7 +6403,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6397,7 +6417,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6657,7 +6677,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8730,75 +8750,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:51" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="77" t="s">
+    <row r="1" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="82" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="81" t="s">
+      <c r="V2" s="65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:51" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="78"/>
+    <row r="3" spans="2:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="90"/>
       <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
@@ -8829,53 +8849,53 @@
       <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="87" t="s">
+      <c r="Q3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="81"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="65"/>
     </row>
-    <row r="4" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="67" t="s">
+    <row r="4" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="81"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="65"/>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
@@ -8901,15 +8921,15 @@
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="81"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="65"/>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
@@ -8935,15 +8955,15 @@
         <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="81"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="65"/>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
@@ -8969,15 +8989,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="81"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="65"/>
     </row>
-    <row r="8" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
@@ -9003,13 +9023,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="81"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="65"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="63" t="s">
         <v>26</v>
@@ -9023,30 +9043,30 @@
       </c>
       <c r="AS8" s="61"/>
     </row>
-    <row r="9" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
+    <row r="9" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="65"/>
       <c r="W9">
         <v>1</v>
       </c>
@@ -9105,7 +9125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -9236,7 +9256,7 @@
         <v>15.48931083010269</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
@@ -9299,7 +9319,7 @@
         <v>14</v>
       </c>
       <c r="T11" s="59">
-        <f t="shared" ref="T11:T33" si="11">SQRT((G11)^2+(L11)^2)</f>
+        <f t="shared" ref="T11:T32" si="11">SQRT((G11)^2+(L11)^2)</f>
         <v>19.646882704388499</v>
       </c>
       <c r="U11" s="60">
@@ -9365,7 +9385,7 @@
         <v>6.8987188293049284</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
@@ -9490,7 +9510,7 @@
         <v>10.645137729461677</v>
       </c>
     </row>
-    <row r="13" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
@@ -9592,11 +9612,11 @@
       </c>
       <c r="AS13" s="51">
         <f t="shared" si="16"/>
-        <v>26.472165009496962</v>
+        <v>32.502090382169499</v>
       </c>
       <c r="AT13" s="51">
         <f t="shared" si="16"/>
-        <v>11.865815167608451</v>
+        <v>18.395746254534252</v>
       </c>
       <c r="AV13" s="51">
         <f>STDEV(AK31:AK35)</f>
@@ -9608,30 +9628,30 @@
       </c>
       <c r="AX13" s="51">
         <f t="shared" si="17"/>
-        <v>17.191003450568434</v>
+        <v>8.8469006429713239</v>
       </c>
       <c r="AY13" s="51">
         <f t="shared" si="17"/>
-        <v>9.8235959816246261</v>
+        <v>10.770127653537179</v>
       </c>
     </row>
-    <row r="14" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="72"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
@@ -9693,7 +9713,7 @@
         <v>12.974960035822214</v>
       </c>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
@@ -9771,7 +9791,7 @@
       <c r="AM15" s="51"/>
       <c r="AN15" s="51"/>
     </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9849,7 +9869,7 @@
       <c r="AM16" s="51"/>
       <c r="AN16" s="51"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
@@ -9942,7 +9962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
@@ -10032,23 +10052,23 @@
         <v>15.524174696260024</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="70" t="s">
+    <row r="19" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="72"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
@@ -10075,7 +10095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
@@ -10169,7 +10189,7 @@
       </c>
       <c r="AP20" s="51"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>9</v>
       </c>
@@ -10262,7 +10282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
@@ -10337,7 +10357,7 @@
       <c r="AM22" s="51"/>
       <c r="AN22" s="51"/>
     </row>
-    <row r="23" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>11</v>
       </c>
@@ -10408,23 +10428,23 @@
       <c r="AM23" s="51"/>
       <c r="AN23" s="51"/>
     </row>
-    <row r="24" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="70" t="s">
+    <row r="24" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="72"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -10451,7 +10471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
@@ -10544,7 +10564,7 @@
         <v>5.0990195135927845</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
@@ -10638,7 +10658,7 @@
       </c>
       <c r="AP26" s="51"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
@@ -10654,7 +10674,9 @@
       <c r="F27" s="1">
         <v>-25</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="10">
+        <v>-3</v>
+      </c>
       <c r="H27" s="8">
         <v>3</v>
       </c>
@@ -10667,18 +10689,20 @@
       <c r="K27" s="1">
         <v>11</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="16">
+        <v>30</v>
+      </c>
       <c r="M27" s="7">
         <f t="shared" si="24"/>
-        <v>-21.8</v>
+        <v>-22.4</v>
       </c>
       <c r="N27" s="44">
         <f t="shared" si="25"/>
-        <v>12.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="O27" s="56">
         <f t="shared" si="2"/>
-        <v>25.179356624028344</v>
+        <v>29.115631540462935</v>
       </c>
       <c r="P27" s="58">
         <f t="shared" si="7"/>
@@ -10698,11 +10722,11 @@
       </c>
       <c r="T27" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30.14962686336267</v>
       </c>
       <c r="U27" s="60">
         <f t="shared" si="12"/>
-        <v>26.472165009496962</v>
+        <v>32.502090382169499</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -10724,7 +10748,7 @@
         <v>15.132745950421556</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
@@ -10740,7 +10764,9 @@
       <c r="F28" s="3">
         <v>11</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="11">
+        <v>-15</v>
+      </c>
       <c r="H28" s="9">
         <v>11</v>
       </c>
@@ -10753,18 +10779,20 @@
       <c r="K28" s="3">
         <v>2</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="17">
+        <v>29</v>
+      </c>
       <c r="M28" s="37">
         <f>SUM(C28:G28)/5</f>
-        <v>-3.2</v>
+        <v>-6.2</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="25"/>
-        <v>-1.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O28" s="57">
         <f t="shared" si="2"/>
-        <v>3.4176014981270129</v>
+        <v>7.7201036262475133</v>
       </c>
       <c r="P28" s="58">
         <f>SQRT((C28)^2+(H28)^2)</f>
@@ -10784,11 +10812,11 @@
       </c>
       <c r="T28" s="59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>32.649655434629018</v>
       </c>
       <c r="U28" s="60">
         <f t="shared" si="12"/>
-        <v>11.865815167608451</v>
+        <v>18.395746254534252</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -10810,23 +10838,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="72"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -10838,7 +10866,7 @@
       <c r="AM29" s="51"/>
       <c r="AN29" s="51"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
@@ -10916,7 +10944,7 @@
       <c r="AM30" s="51"/>
       <c r="AN30" s="51"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
@@ -11006,7 +11034,7 @@
         <v>27.313000567495326</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>10</v>
       </c>
@@ -11096,7 +11124,7 @@
         <v>11.401754250991379</v>
       </c>
     </row>
-    <row r="33" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
@@ -11179,23 +11207,23 @@
       </c>
       <c r="AP33" s="51"/>
     </row>
-    <row r="34" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="67" t="s">
+    <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="81"/>
       <c r="AJ34">
         <v>0.5</v>
       </c>
@@ -11216,7 +11244,7 @@
         <v>11.180339887498949</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
@@ -11246,14 +11274,14 @@
       </c>
       <c r="AM35" s="51">
         <f>T27</f>
-        <v>0</v>
+        <v>30.14962686336267</v>
       </c>
       <c r="AN35" s="51">
         <f>T28</f>
-        <v>0</v>
+        <v>32.649655434629018</v>
       </c>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>9</v>
       </c>
@@ -11275,7 +11303,7 @@
       <c r="AM36" s="51"/>
       <c r="AN36" s="51"/>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>10</v>
       </c>
@@ -11297,7 +11325,7 @@
       <c r="AM37" s="51"/>
       <c r="AN37" s="51"/>
     </row>
-    <row r="38" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="30" t="s">
         <v>11</v>
       </c>
@@ -11334,7 +11362,7 @@
         <v>33.61547262794322</v>
       </c>
     </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AJ39">
         <v>0.25</v>
       </c>
@@ -11355,7 +11383,7 @@
         <v>8.2462112512353212</v>
       </c>
     </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AJ40">
         <v>0.25</v>
       </c>
@@ -11376,7 +11404,7 @@
         <v>5.3851648071345037</v>
       </c>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AJ41">
         <v>0.25</v>
       </c>
@@ -11398,7 +11426,7 @@
       </c>
       <c r="AP41" s="51"/>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AJ42">
         <v>0.25</v>
       </c>
@@ -11419,7 +11447,7 @@
         <v>9.4493697372626091</v>
       </c>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.25">
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
       <c r="AG43" s="51"/>
@@ -11427,14 +11455,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V2:V9"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="Q3:Q9"/>
-    <mergeCell ref="R3:R9"/>
-    <mergeCell ref="S3:S9"/>
-    <mergeCell ref="T3:T9"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -11448,6 +11468,14 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
